--- a/FE12/Cell Modeling/FE12_P45B_EntropicHeatCoefficients.xlsx
+++ b/FE12/Cell Modeling/FE12_P45B_EntropicHeatCoefficients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad310da11adffc61/Documentos/GitHub/FE12-Accumulator/FE12/Cell Modeling/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laptop\OneDrive - University of California, Davis\Documents\GitHub\FE12-Accumulator\FE12\Cell Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="160" documentId="8_{D06842FD-ED77-4144-9053-19018A5C6D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B71731A-67B2-4B91-9138-BFECDB1C7BEF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE3E17E-8963-4FA2-8D8F-6F755B7A959C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{31AE9364-1268-41AB-B668-B2DC75F79138}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31AE9364-1268-41AB-B668-B2DC75F79138}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="10">
   <si>
     <t>Slope Method</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>C-Rate: 4C</t>
+  </si>
+  <si>
+    <t>Difference between coefficients</t>
+  </si>
+  <si>
+    <t>Internal Resistance (mOhms)</t>
   </si>
 </sst>
 </file>
@@ -120,7 +126,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,8 +145,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -148,28 +160,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -177,13 +173,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -236,11 +235,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Voltage at Moment of </a:t>
+              <a:t>Voltage One</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t>Pulse Discharge</a:t>
+              <a:t> Time Point Before Pulse Discharge</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -354,34 +353,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.5029919999989261E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.11390688000002314</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.10135652000000661</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.19474031999998864</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.18161769999998967</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.19809723999999029</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>-0.50117489999999876</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>-8.4304780000010737E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>-0.18051150000000682</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>-2.5596639999978521E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -744,7 +743,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Before Pulse Discharge</a:t>
+              <a:t> After Pulse Discharge</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -858,34 +857,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.94154355999997108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.80352784000002231</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.71094512000000165</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.77865599999999091</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.77278137999998719</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.80451963999999876</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.1103973399999969</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.5504608000000033</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.52135466000000186</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1.218605040000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1358,10 +1357,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$14:$D$14</c:f>
+              <c:f>Sheet1!$B$14:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>303</c:v>
                 </c:pt>
@@ -1370,16 +1369,37 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$15:$D$15</c:f>
+              <c:f>Sheet1!$B$15:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.0991182330000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1066789630000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.112322807</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1157617569999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1181154250000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1577,6 +1597,1505 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Voltage One Time Point</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> After Pulse Discharge</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$15:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$15:$U$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.7731857200000256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4645766999999932</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2839508199999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3013458199999928</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3038253999999938</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3572311199999909</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67634584000000331</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1613082999999857</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.296119719999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4850845399999955</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-170C-4557-97BC-1EE6B83C78DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="419898848"/>
+        <c:axId val="419883488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="419898848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>SOC (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419883488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="419883488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Entropic</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Coefficients (mV/K)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419898848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Voltage One</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Time Point Before Pulse Discharge</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$3:$U$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-5.7222000000578532E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10696412000001487</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.106779999999091E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11627197999999339</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10856631999998534</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16471861999999504</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.53657529999999731</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.11940002000000227</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.13713833999999814</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.11108397999999298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3AFE-4329-89EB-2EF3E4B14817}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="966960352"/>
+        <c:axId val="966978592"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="966960352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>SOC (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="966978592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="966978592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Entropic Coefficients (mV/K)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="966960352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Difference</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> in Entropic Coefficients 2C minus 4C</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$2:$AA$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AB$2:$AB$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.5602139999995046E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9427600000082634E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0288720000015701E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8468339999995251E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3051380000004329E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3378619999995252E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5400399999998555E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5095239999991534E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3373160000008681E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.5487340000014456E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1500-4F71-A1DD-F21CA2DF0895}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="933832944"/>
+        <c:axId val="933828144"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="933832944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>SOC</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="933828144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="933828144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Difference</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (mV/K)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="933832944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1697,6 +3216,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2730,6 +4369,1554 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3251,13 +6438,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>401002</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>142873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>3334</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>80961</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3287,13 +6474,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>613885</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>162876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>123823</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3323,13 +6510,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>466249</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>411957</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3350,6 +6537,118 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>653144</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>163082</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>169138</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FED5378D-AD41-4FC2-96CC-BBFBADF36EE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>78582</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>46946</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B68E00C0-3CCC-4D42-A3F9-6EBACF1978E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>687158</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AF92FD7-5C52-56DD-E75C-CBF0F282B473}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3675,10 +6974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB795AD-713B-444C-8C0B-22AC1AA478F9}">
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:AD37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3687,7 +6986,7 @@
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" customWidth="1"/>
     <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
     <col min="11" max="11" width="12.140625" customWidth="1"/>
     <col min="12" max="12" width="15.5703125" customWidth="1"/>
     <col min="14" max="14" width="12.5703125" customWidth="1"/>
@@ -3699,1156 +6998,2325 @@
     <col min="25" max="25" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="N1" s="9" t="s">
         <v>7</v>
       </c>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="AA1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="8">
+        <v>303</v>
+      </c>
+      <c r="C2" s="8">
+        <v>308</v>
+      </c>
+      <c r="D2" s="8">
+        <v>313</v>
+      </c>
+      <c r="E2" s="8">
+        <v>318</v>
+      </c>
+      <c r="F2" s="1">
+        <v>323</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="8">
+        <v>303</v>
+      </c>
+      <c r="P2" s="8">
+        <v>308</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>313</v>
+      </c>
+      <c r="R2" s="8">
+        <v>318</v>
+      </c>
+      <c r="S2" s="1">
+        <v>323</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="3"/>
+      <c r="W2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="8">
+        <v>100</v>
+      </c>
+      <c r="AB2">
+        <f>ABS(H3-U3)</f>
+        <v>1.5602139999995046E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>100</v>
+      </c>
+      <c r="B3" s="6">
+        <v>4.1892862319999997</v>
+      </c>
+      <c r="C3" s="6">
+        <v>4.1898183820000003</v>
+      </c>
+      <c r="D3" s="6">
+        <v>4.1900777820000004</v>
+      </c>
+      <c r="E3" s="6">
+        <v>4.189990044</v>
+      </c>
+      <c r="F3">
+        <v>4.1895761489999996</v>
+      </c>
+      <c r="G3">
+        <f>SLOPE(B3:F3,$B$2:$F$2)</f>
+        <v>1.5029919999989261E-5</v>
+      </c>
+      <c r="H3" s="5">
+        <f>G3*1000</f>
+        <v>1.5029919999989261E-2</v>
+      </c>
+      <c r="J3" cm="1">
+        <f t="array" ref="J3:K3">LINEST(B3:F3, $B$2:$F$2,TRUE,FALSE)</f>
+        <v>1.5029919999989258E-5</v>
+      </c>
+      <c r="K3">
+        <v>4.1850453528400031</v>
+      </c>
+      <c r="L3" s="5">
+        <f>J3*1000</f>
+        <v>1.5029919999989257E-2</v>
+      </c>
+      <c r="N3" s="8">
+        <v>100</v>
+      </c>
+      <c r="O3" s="6">
+        <v>4.1893224719999997</v>
+      </c>
+      <c r="P3" s="6">
+        <v>4.1897230150000002</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>4.1899480819999999</v>
+      </c>
+      <c r="R3" s="6">
+        <v>4.1895723340000002</v>
+      </c>
+      <c r="S3">
+        <v>4.1893835069999996</v>
+      </c>
+      <c r="T3">
+        <f>SLOPE(O3:S3,$B$2:$F$2)</f>
+        <v>-5.7222000000578537E-7</v>
+      </c>
+      <c r="U3" s="5">
+        <f>T3*1000</f>
+        <v>-5.7222000000578532E-4</v>
+      </c>
+      <c r="W3" cm="1">
+        <f t="array" ref="W3:X3">LINEST(O3:S3, $B$2:$F$2,TRUE,FALSE)</f>
+        <v>-5.722200000057842E-7</v>
+      </c>
+      <c r="X3">
+        <v>4.1897689868600017</v>
+      </c>
+      <c r="Y3" s="5">
+        <f>W3*1000</f>
+        <v>-5.7222000000578424E-4</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>90</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" ref="AB3:AB11" si="0">ABS(H4-U4)</f>
+        <v>6.9427600000082634E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>90</v>
+      </c>
+      <c r="B4" s="6">
+        <v>4.0804414749999998</v>
+      </c>
+      <c r="C4" s="6">
+        <v>4.0811223979999998</v>
+      </c>
+      <c r="D4" s="6">
+        <v>4.0818853380000002</v>
+      </c>
+      <c r="E4" s="6">
+        <v>4.0821714399999998</v>
+      </c>
+      <c r="F4">
+        <v>4.0827646260000003</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G12" si="1">SLOPE(B4:F4,$B$2:$F$2)</f>
+        <v>1.1390688000002313E-4</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" ref="H4:H24" si="2">G4*1000</f>
+        <v>0.11390688000002314</v>
+      </c>
+      <c r="J4" cm="1">
+        <f t="array" ref="J4:K4">LINEST(B4:F4, $B$2:$F$2,TRUE,FALSE)</f>
+        <v>1.1390688000002312E-4</v>
+      </c>
+      <c r="K4">
+        <v>4.0460242019599919</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" ref="L4:L12" si="3">J4*1000</f>
+        <v>0.11390688000002312</v>
+      </c>
+      <c r="N4" s="8">
+        <v>90</v>
+      </c>
+      <c r="O4" s="6">
+        <v>4.0800867079999996</v>
+      </c>
+      <c r="P4" s="6">
+        <v>4.0806646349999998</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>4.0812082289999996</v>
+      </c>
+      <c r="R4" s="6">
+        <v>4.0816411969999997</v>
+      </c>
+      <c r="S4">
+        <v>4.08227253</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T12" si="4">SLOPE(O4:S4,$B$2:$F$2)</f>
+        <v>1.0696412000001488E-4</v>
+      </c>
+      <c r="U4" s="5">
+        <f t="shared" ref="U4:U12" si="5">T4*1000</f>
+        <v>0.10696412000001487</v>
+      </c>
+      <c r="W4" cm="1">
+        <f t="array" ref="W4:X4">LINEST(O4:S4, $B$2:$F$2,TRUE,FALSE)</f>
+        <v>1.0696412000001486E-4</v>
+      </c>
+      <c r="X4">
+        <v>4.0476948902399954</v>
+      </c>
+      <c r="Y4" s="5">
+        <f t="shared" ref="Y4:Y12" si="6">W4*1000</f>
+        <v>0.10696412000001486</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>80</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="0"/>
+        <v>3.0288720000015701E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>80</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4.0096101759999998</v>
+      </c>
+      <c r="C5" s="6">
+        <v>4.0103521349999998</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4.0107564929999997</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4.0111894609999998</v>
+      </c>
+      <c r="F5">
+        <v>4.0117254259999999</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>1.0135652000000661E-4</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="2"/>
+        <v>0.10135652000000661</v>
+      </c>
+      <c r="J5" cm="1">
+        <f t="array" ref="J5:K5">LINEST(B5:F5, $B$2:$F$2,TRUE,FALSE)</f>
+        <v>1.0135652000000658E-4</v>
+      </c>
+      <c r="K5">
+        <v>3.9790021474399988</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" si="3"/>
+        <v>0.10135652000000658</v>
+      </c>
+      <c r="N5" s="8">
+        <v>80</v>
+      </c>
+      <c r="O5" s="6">
+        <v>4.0070753100000003</v>
+      </c>
+      <c r="P5" s="6">
+        <v>4.0077810290000002</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>4.0082082750000003</v>
+      </c>
+      <c r="R5" s="6">
+        <v>4.0082712169999999</v>
+      </c>
+      <c r="S5">
+        <v>4.0086069110000002</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="4"/>
+        <v>7.106779999999091E-5</v>
+      </c>
+      <c r="U5" s="5">
+        <f t="shared" si="5"/>
+        <v>7.106779999999091E-2</v>
+      </c>
+      <c r="W5" cm="1">
+        <f t="array" ref="W5:X5">LINEST(O5:S5, $B$2:$F$2,TRUE,FALSE)</f>
+        <v>7.106779999999091E-5</v>
+      </c>
+      <c r="X5">
+        <v>3.9857443270000039</v>
+      </c>
+      <c r="Y5" s="5">
+        <f t="shared" si="6"/>
+        <v>7.106779999999091E-2</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>70</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="0"/>
+        <v>7.8468339999995251E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>70</v>
+      </c>
+      <c r="B6" s="6">
+        <v>3.908585548</v>
+      </c>
+      <c r="C6" s="6">
+        <v>3.9106225970000001</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3.9118585590000001</v>
+      </c>
+      <c r="E6" s="6">
+        <v>3.9122610089999998</v>
+      </c>
+      <c r="F6">
+        <v>3.9126348499999999</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>1.9474031999998863E-4</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="2"/>
+        <v>0.19474031999998864</v>
+      </c>
+      <c r="J6" cm="1">
+        <f t="array" ref="J6:K6">LINEST(B6:F6, $B$2:$F$2,TRUE,FALSE)</f>
+        <v>1.9474031999998858E-4</v>
+      </c>
+      <c r="K6">
+        <v>3.8502387924400039</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" si="3"/>
+        <v>0.19474031999998859</v>
+      </c>
+      <c r="N6" s="8">
+        <v>70</v>
+      </c>
+      <c r="O6" s="6">
+        <v>3.9092588419999998</v>
+      </c>
+      <c r="P6" s="6">
+        <v>3.9107999800000002</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>3.9111623760000001</v>
+      </c>
+      <c r="R6" s="6">
+        <v>3.911295891</v>
+      </c>
+      <c r="S6">
+        <v>3.9119176859999998</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="4"/>
+        <v>1.1627197999999339E-4</v>
+      </c>
+      <c r="U6" s="5">
+        <f t="shared" si="5"/>
+        <v>0.11627197999999339</v>
+      </c>
+      <c r="W6" cm="1">
+        <f t="array" ref="W6:X6">LINEST(O6:S6, $B$2:$F$2,TRUE,FALSE)</f>
+        <v>1.1627197999999337E-4</v>
+      </c>
+      <c r="X6">
+        <v>3.8744938252600023</v>
+      </c>
+      <c r="Y6" s="5">
+        <f t="shared" si="6"/>
+        <v>0.11627197999999338</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>60</v>
+      </c>
+      <c r="AB6">
+        <f>ABS(H7-U7)</f>
+        <v>7.3051380000004329E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>60</v>
+      </c>
+      <c r="B7" s="6">
+        <v>3.8051538470000001</v>
+      </c>
+      <c r="C7" s="6">
+        <v>3.8062906270000001</v>
+      </c>
+      <c r="D7" s="6">
+        <v>3.807137489</v>
+      </c>
+      <c r="E7" s="6">
+        <v>3.8079481120000001</v>
+      </c>
+      <c r="F7">
+        <v>3.8088655469999999</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>1.8161769999998966E-4</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="2"/>
+        <v>0.18161769999998967</v>
+      </c>
+      <c r="J7" cm="1">
+        <f t="array" ref="J7:K7">LINEST(B7:F7, $B$2:$F$2,TRUE,FALSE)</f>
+        <v>1.8161769999998963E-4</v>
+      </c>
+      <c r="K7">
+        <v>3.7502327843000036</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="3"/>
+        <v>0.18161769999998964</v>
+      </c>
+      <c r="N7" s="8">
+        <v>60</v>
+      </c>
+      <c r="O7" s="6">
+        <v>3.8047857280000001</v>
+      </c>
+      <c r="P7" s="6">
+        <v>3.805495262</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>3.8061017989999999</v>
+      </c>
+      <c r="R7" s="6">
+        <v>3.806258202</v>
+      </c>
+      <c r="S7">
+        <v>3.8071184159999998</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="4"/>
+        <v>1.0856631999998534E-4</v>
+      </c>
+      <c r="U7" s="5">
+        <f t="shared" si="5"/>
+        <v>0.10856631999998534</v>
+      </c>
+      <c r="W7" cm="1">
+        <f t="array" ref="W7:X7">LINEST(O7:S7, $B$2:$F$2,TRUE,FALSE)</f>
+        <v>1.0856631999998532E-4</v>
+      </c>
+      <c r="X7">
+        <v>3.7719706232400045</v>
+      </c>
+      <c r="Y7" s="5">
+        <f t="shared" si="6"/>
+        <v>0.10856631999998533</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>50</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="0"/>
+        <v>3.3378619999995252E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>50</v>
+      </c>
+      <c r="B8" s="6">
+        <v>3.7137269970000002</v>
+      </c>
+      <c r="C8" s="6">
+        <v>3.7151975629999998</v>
+      </c>
+      <c r="D8" s="6">
+        <v>3.7164640430000002</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3.7169427869999998</v>
+      </c>
+      <c r="F8">
+        <v>3.717806816</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>1.9809723999999028E-4</v>
+      </c>
+      <c r="H8" s="5">
+        <f>G8*1000</f>
+        <v>0.19809723999999029</v>
+      </c>
+      <c r="J8" cm="1">
+        <f t="array" ref="J8:K8">LINEST(B8:F8, $B$2:$F$2,TRUE,FALSE)</f>
+        <v>1.9809723999999026E-4</v>
+      </c>
+      <c r="K8">
+        <v>3.6540232050800032</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" si="3"/>
+        <v>0.19809723999999027</v>
+      </c>
+      <c r="N8" s="8">
+        <v>50</v>
+      </c>
+      <c r="O8" s="6">
+        <v>3.7120218280000001</v>
+      </c>
+      <c r="P8" s="6">
+        <v>3.7133798599999999</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>3.714301109</v>
+      </c>
+      <c r="R8" s="6">
+        <v>3.7147340770000001</v>
+      </c>
+      <c r="S8">
+        <v>3.7154626849999999</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="4"/>
+        <v>1.6471861999999503E-4</v>
+      </c>
+      <c r="U8" s="5">
+        <f t="shared" si="5"/>
+        <v>0.16471861999999504</v>
+      </c>
+      <c r="W8" cm="1">
+        <f t="array" ref="W8:X8">LINEST(O8:S8, $B$2:$F$2,TRUE,FALSE)</f>
+        <v>1.6471861999999503E-4</v>
+      </c>
+      <c r="X8">
+        <v>3.6624229837400017</v>
+      </c>
+      <c r="Y8" s="5">
+        <f t="shared" si="6"/>
+        <v>0.16471861999999504</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>40</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="0"/>
+        <v>3.5400399999998555E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>40</v>
+      </c>
+      <c r="B9" s="6">
+        <v>3.6164159769999999</v>
+      </c>
+      <c r="C9" s="6">
+        <v>3.6139574049999998</v>
+      </c>
+      <c r="D9" s="6">
+        <v>3.611159325</v>
+      </c>
+      <c r="E9" s="6">
+        <v>3.6083726880000002</v>
+      </c>
+      <c r="F9">
+        <v>3.6066789629999998</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>-5.0117489999999874E-4</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.50117489999999876</v>
+      </c>
+      <c r="J9" cm="1">
+        <f t="array" ref="J9:K9">LINEST(B9:F9, $B$2:$F$2,TRUE,FALSE)</f>
+        <v>-5.0117489999999874E-4</v>
+      </c>
+      <c r="K9">
+        <v>3.7681846152999992</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.50117489999999876</v>
+      </c>
+      <c r="N9" s="8">
+        <v>40</v>
+      </c>
+      <c r="O9" s="6">
+        <v>3.6174116129999998</v>
+      </c>
+      <c r="P9" s="6">
+        <v>3.6148748400000001</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>3.6117887500000001</v>
+      </c>
+      <c r="R9" s="6">
+        <v>3.6089963909999998</v>
+      </c>
+      <c r="S9">
+        <v>3.606936455</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="4"/>
+        <v>-5.3657529999999736E-4</v>
+      </c>
+      <c r="U9" s="5">
+        <f t="shared" si="5"/>
+        <v>-0.53657529999999731</v>
+      </c>
+      <c r="W9" cm="1">
+        <f t="array" ref="W9:X9">LINEST(O9:S9, $B$2:$F$2,TRUE,FALSE)</f>
+        <v>-5.3657529999999725E-4</v>
+      </c>
+      <c r="X9">
+        <v>3.7799496786999991</v>
+      </c>
+      <c r="Y9" s="5">
+        <f t="shared" si="6"/>
+        <v>-0.5365752999999972</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>30</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="0"/>
+        <v>3.5095239999991534E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>30</v>
+      </c>
+      <c r="B10" s="6">
+        <v>3.5043325420000002</v>
+      </c>
+      <c r="C10" s="6">
+        <v>3.5040044780000001</v>
+      </c>
+      <c r="D10" s="6">
+        <v>3.5036191940000001</v>
+      </c>
+      <c r="E10" s="6">
+        <v>3.5030889510000001</v>
+      </c>
+      <c r="F10">
+        <v>3.502682686</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>-8.4304780000010732E-5</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="2"/>
+        <v>-8.4304780000010737E-2</v>
+      </c>
+      <c r="J10" cm="1">
+        <f t="array" ref="J10:K10">LINEST(B10:F10, $B$2:$F$2,TRUE,FALSE)</f>
+        <v>-8.4304780000010732E-5</v>
+      </c>
+      <c r="K10">
+        <v>3.5299329663400041</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" si="3"/>
+        <v>-8.4304780000010737E-2</v>
+      </c>
+      <c r="N10" s="8">
+        <v>30</v>
+      </c>
+      <c r="O10" s="6">
+        <v>3.503825188</v>
+      </c>
+      <c r="P10" s="6">
+        <v>3.5032930370000002</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>3.5027780530000001</v>
+      </c>
+      <c r="R10" s="6">
+        <v>3.5020265579999998</v>
+      </c>
+      <c r="S10">
+        <v>3.5014734270000001</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="4"/>
+        <v>-1.1940002000000227E-4</v>
+      </c>
+      <c r="U10" s="5">
+        <f t="shared" si="5"/>
+        <v>-0.11940002000000227</v>
+      </c>
+      <c r="W10" cm="1">
+        <f t="array" ref="W10:X10">LINEST(O10:S10, $B$2:$F$2,TRUE,FALSE)</f>
+        <v>-1.1940002000000224E-4</v>
+      </c>
+      <c r="X10">
+        <v>3.5400514588600007</v>
+      </c>
+      <c r="Y10" s="5">
+        <f t="shared" si="6"/>
+        <v>-0.11940002000000224</v>
+      </c>
+      <c r="AA10" s="8">
+        <v>20</v>
+      </c>
+      <c r="AB10">
+        <f>ABS(H11-U11)</f>
+        <v>4.3373160000008681E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>20</v>
+      </c>
+      <c r="B11" s="6">
+        <v>3.379355431</v>
+      </c>
+      <c r="C11" s="6">
+        <v>3.3796434400000002</v>
+      </c>
+      <c r="D11" s="6">
+        <v>3.379303932</v>
+      </c>
+      <c r="E11" s="6">
+        <v>3.3777322769999998</v>
+      </c>
+      <c r="F11">
+        <v>3.375798225</v>
+      </c>
+      <c r="G11">
+        <f>SLOPE(B11:F11,$B$2:$F$2)</f>
+        <v>-1.8051150000000682E-4</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.18051150000000682</v>
+      </c>
+      <c r="J11" cm="1">
+        <f t="array" ref="J11:K11">LINEST(B11:F11, $B$2:$F$2,TRUE,FALSE)</f>
+        <v>-1.8051150000000682E-4</v>
+      </c>
+      <c r="K11">
+        <v>3.4348667605000021</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.18051150000000682</v>
+      </c>
+      <c r="N11" s="8">
+        <v>20</v>
+      </c>
+      <c r="O11" s="6">
+        <v>3.378550529</v>
+      </c>
+      <c r="P11" s="6">
+        <v>3.3788766859999999</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>3.379033089</v>
+      </c>
+      <c r="R11" s="6">
+        <v>3.3776388169999998</v>
+      </c>
+      <c r="S11">
+        <v>3.3757410050000001</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="4"/>
+        <v>-1.3713833999999813E-4</v>
+      </c>
+      <c r="U11" s="5">
+        <f t="shared" si="5"/>
+        <v>-0.13713833999999814</v>
+      </c>
+      <c r="W11" cm="1">
+        <f t="array" ref="W11:X11">LINEST(O11:S11, $B$2:$F$2,TRUE,FALSE)</f>
+        <v>-1.371383399999981E-4</v>
+      </c>
+      <c r="X11">
+        <v>3.4208923256199992</v>
+      </c>
+      <c r="Y11" s="5">
+        <f t="shared" si="6"/>
+        <v>-0.13713833999999811</v>
+      </c>
+      <c r="AA11" s="8">
+        <v>10</v>
+      </c>
+      <c r="AB11">
+        <f>ABS(H12-U12)</f>
+        <v>8.5487340000014456E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6">
+        <v>3.1602869029999998</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3.1608018879999999</v>
+      </c>
+      <c r="D12" s="6">
+        <v>3.1610898970000001</v>
+      </c>
+      <c r="E12" s="6">
+        <v>3.1605825420000002</v>
+      </c>
+      <c r="F12">
+        <v>3.1597566600000002</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>-2.559663999997852E-5</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="2"/>
+        <v>-2.5596639999978521E-2</v>
+      </c>
+      <c r="J12" cm="1">
+        <f t="array" ref="J12:K12">LINEST(B12:F12, $B$2:$F$2,TRUE,FALSE)</f>
+        <v>-2.5596639999978524E-5</v>
+      </c>
+      <c r="K12">
+        <v>3.1685153263199934</v>
+      </c>
+      <c r="L12" s="5">
+        <f t="shared" si="3"/>
+        <v>-2.5596639999978524E-2</v>
+      </c>
+      <c r="N12" s="8">
+        <v>10</v>
+      </c>
+      <c r="O12" s="6">
+        <v>3.163327217</v>
+      </c>
+      <c r="P12" s="6">
+        <v>3.1635580060000001</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>3.16335392</v>
+      </c>
+      <c r="R12" s="6">
+        <v>3.1621961590000001</v>
+      </c>
+      <c r="S12">
+        <v>3.1612310410000002</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="4"/>
+        <v>-1.1108397999999297E-4</v>
+      </c>
+      <c r="U12" s="5">
+        <f t="shared" si="5"/>
+        <v>-0.11108397999999298</v>
+      </c>
+      <c r="W12" cm="1">
+        <f t="array" ref="W12:X12">LINEST(O12:S12, $B$2:$F$2,TRUE,FALSE)</f>
+        <v>-1.1108397999999296E-4</v>
+      </c>
+      <c r="X12">
+        <v>3.197502554339998</v>
+      </c>
+      <c r="Y12" s="5">
+        <f t="shared" si="6"/>
+        <v>-0.11108397999999296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="H13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="U13" s="5"/>
+      <c r="Y13" s="5"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B14" s="8">
         <v>303</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C14" s="8">
         <v>308</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D14" s="8">
         <v>313</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E14" s="8">
         <v>318</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F14" s="1">
         <v>323</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="3" t="s">
+      <c r="J14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O14" s="8">
         <v>303</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P14" s="8">
         <v>308</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q14" s="8">
         <v>313</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R14" s="8">
         <v>318</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S14" s="1">
         <v>323</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="V2" s="4"/>
-      <c r="W2" s="3" t="s">
+      <c r="W14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y14" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>100</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" t="e">
-        <f>SLOPE(B3:D3,$B$2:$D$2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H3" s="7" t="e">
-        <f>G3*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J3" t="e" cm="1">
-        <f t="array" ref="J3">LINEST(B3:D3, $B$2:$D$2,TRUE,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L3" s="7" t="e">
-        <f>J3*1000</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N3" s="2">
+      <c r="B15" s="6">
+        <v>4.0991182330000004</v>
+      </c>
+      <c r="C15" s="6">
+        <v>4.1066789630000002</v>
+      </c>
+      <c r="D15" s="6">
+        <v>4.112322807</v>
+      </c>
+      <c r="E15" s="6">
+        <v>4.1157617569999996</v>
+      </c>
+      <c r="F15">
+        <v>4.1181154250000001</v>
+      </c>
+      <c r="G15">
+        <f>SLOPE(B15:F15,$B$2:$F$2)</f>
+        <v>9.4154355999997107E-4</v>
+      </c>
+      <c r="H15" s="5">
+        <f>G15*1000</f>
+        <v>0.94154355999997108</v>
+      </c>
+      <c r="J15" cm="1">
+        <f t="array" ref="J15:K15">LINEST(B15:F15, $B$14:$F$14,TRUE,FALSE)</f>
+        <v>9.4154355999997107E-4</v>
+      </c>
+      <c r="K15">
+        <v>3.815696302720009</v>
+      </c>
+      <c r="L15" s="5">
+        <f>J15*1000</f>
+        <v>0.94154355999997108</v>
+      </c>
+      <c r="N15" s="8">
         <v>100</v>
       </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" t="e">
-        <f>SLOPE(O3:Q3,$B$2:$D$2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U3" s="7" t="e">
-        <f>T3*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W3" t="e" cm="1">
-        <f t="array" ref="W3">LINEST(O3:Q3, $B$2:$D$2,TRUE,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y3" s="7" t="e">
-        <f>W3*1000</f>
-        <v>#VALUE!</v>
+      <c r="O15" s="6">
+        <v>4.0018701549999998</v>
+      </c>
+      <c r="P15" s="6">
+        <v>4.0156583789999996</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>4.0258684159999998</v>
+      </c>
+      <c r="R15" s="6">
+        <v>4.0324411390000003</v>
+      </c>
+      <c r="S15">
+        <v>4.037808418</v>
+      </c>
+      <c r="T15">
+        <f>SLOPE(O15:S15,$B$2:$F$2)</f>
+        <v>1.7731857200000256E-3</v>
+      </c>
+      <c r="U15" s="5">
+        <f>T15*1000</f>
+        <v>1.7731857200000256</v>
+      </c>
+      <c r="W15" cm="1">
+        <f t="array" ref="W15:X15">LINEST(O15:S15, $B$14:$F$14,TRUE,FALSE)</f>
+        <v>1.7731857200000254E-3</v>
+      </c>
+      <c r="X15">
+        <v>3.4677221710399921</v>
+      </c>
+      <c r="Y15" s="5">
+        <f>W15*1000</f>
+        <v>1.7731857200000254</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
         <v>90</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" t="e">
-        <f t="shared" ref="G4:G24" si="0">SLOPE(B4:D4,$B$2:$D$2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H4" s="7" t="e">
-        <f t="shared" ref="H4:H24" si="1">G4*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J4" t="e" cm="1">
-        <f t="array" ref="J4">LINEST(B4:D4, $B$2:$D$2,TRUE,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L4" s="7" t="e">
-        <f t="shared" ref="L4:L12" si="2">J4*1000</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N4" s="2">
+      <c r="B16" s="6">
+        <v>3.9995183939999999</v>
+      </c>
+      <c r="C16" s="6">
+        <v>4.005576134</v>
+      </c>
+      <c r="D16" s="6">
+        <v>4.0101614000000003</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4.013316154</v>
+      </c>
+      <c r="F16">
+        <v>4.0157365800000004</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:G24" si="7">SLOPE(B16:F16,$B$2:$F$2)</f>
+        <v>8.0352784000002229E-4</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="2"/>
+        <v>0.80352784000002231</v>
+      </c>
+      <c r="J16" cm="1">
+        <f t="array" ref="J16:K16">LINEST(B16:F16, $B$14:$F$14,TRUE,FALSE)</f>
+        <v>8.0352784000002218E-4</v>
+      </c>
+      <c r="K16">
+        <v>3.7573575184799948</v>
+      </c>
+      <c r="L16" s="5">
+        <f t="shared" ref="L16:L24" si="8">J16*1000</f>
+        <v>0.8035278400000222</v>
+      </c>
+      <c r="N16" s="8">
         <v>90</v>
       </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" t="e">
-        <f t="shared" ref="T4:T24" si="3">SLOPE(O4:Q4,$B$2:$D$2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U4" s="7" t="e">
-        <f t="shared" ref="U4:U24" si="4">T4*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W4" t="e" cm="1">
-        <f t="array" ref="W4">LINEST(O4:Q4, $B$2:$D$2,TRUE,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y4" s="7" t="e">
-        <f t="shared" ref="Y4:Y12" si="5">W4*1000</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>80</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H5" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J5" t="e" cm="1">
-        <f t="array" ref="J5">LINEST(B5:D5, $B$2:$D$2,TRUE,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L5" s="7" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N5" s="2">
-        <v>80</v>
-      </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U5" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W5" t="e" cm="1">
-        <f t="array" ref="W5">LINEST(O5:Q5, $B$2:$D$2,TRUE,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y5" s="7" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>70</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H6" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" t="e" cm="1">
-        <f t="array" ref="J6">LINEST(B6:D6, $B$2:$D$2,TRUE,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L6" s="7" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N6" s="2">
-        <v>70</v>
-      </c>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U6" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W6" t="e" cm="1">
-        <f t="array" ref="W6">LINEST(O6:Q6, $B$2:$D$2,TRUE,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y6" s="7" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>60</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H7" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" t="e" cm="1">
-        <f t="array" ref="J7">LINEST(B7:D7, $B$2:$D$2,TRUE,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L7" s="7" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N7" s="2">
-        <v>60</v>
-      </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U7" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W7" t="e" cm="1">
-        <f t="array" ref="W7">LINEST(O7:Q7, $B$2:$D$2,TRUE,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y7" s="7" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>50</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H8" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" t="e" cm="1">
-        <f t="array" ref="J8">LINEST(B8:D8, $B$2:$D$2,TRUE,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L8" s="7" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N8" s="2">
-        <v>50</v>
-      </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U8" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W8" t="e" cm="1">
-        <f t="array" ref="W8">LINEST(O8:Q8, $B$2:$D$2,TRUE,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y8" s="7" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>40</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H9" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" t="e" cm="1">
-        <f t="array" ref="J9">LINEST(B9:D9, $B$2:$D$2,TRUE,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L9" s="7" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N9" s="2">
-        <v>40</v>
-      </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U9" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W9" t="e" cm="1">
-        <f t="array" ref="W9">LINEST(O9:Q9, $B$2:$D$2,TRUE,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y9" s="7" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>30</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" t="e">
-        <f>SLOPE(B10:D10,$B$2:$D$2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H10" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J10" t="e" cm="1">
-        <f t="array" ref="J10">LINEST(B10:D10, $B$2:$D$2,TRUE,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L10" s="7" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N10" s="2">
-        <v>30</v>
-      </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" t="e">
-        <f>SLOPE(O10:Q10,$B$2:$D$2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U10" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W10" t="e" cm="1">
-        <f t="array" ref="W10">LINEST(O10:Q10, $B$2:$D$2,TRUE,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y10" s="7" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H11" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J11" t="e" cm="1">
-        <f t="array" ref="J11">LINEST(B11:D11, $B$2:$D$2,TRUE,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L11" s="7" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N11" s="2">
-        <v>20</v>
-      </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" t="e">
-        <f t="shared" ref="T11:T24" si="6">SLOPE(O11:Q11,$B$2:$D$2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U11" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W11" t="e" cm="1">
-        <f t="array" ref="W11">LINEST(O11:Q11, $B$2:$D$2,TRUE,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y11" s="7" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J12" t="e" cm="1">
-        <f t="array" ref="J12">LINEST(B12:D12, $B$2:$D$2,TRUE,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L12" s="7" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N12" s="2">
-        <v>10</v>
-      </c>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U12" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W12" t="e" cm="1">
-        <f t="array" ref="W12">LINEST(O12:Q12, $B$2:$D$2,TRUE,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y12" s="7" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="H13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="Y13" s="7"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="2">
-        <v>303</v>
-      </c>
-      <c r="C14" s="2">
-        <v>308</v>
-      </c>
-      <c r="D14" s="2">
-        <v>313</v>
-      </c>
-      <c r="E14" s="2">
-        <v>318</v>
-      </c>
-      <c r="F14" s="2">
-        <v>323</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="2">
-        <v>303</v>
-      </c>
-      <c r="P14" s="2">
-        <v>308</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>313</v>
-      </c>
-      <c r="R14" s="2">
-        <v>318</v>
-      </c>
-      <c r="S14" s="2">
-        <v>323</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="U14" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y14" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>100</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" t="e">
-        <f>SLOPE(B15:D15,$B$2:$D$2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H15" s="7" t="e">
-        <f>G15*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J15" t="e" cm="1">
-        <f t="array" ref="J15">LINEST(B15:D15, $B$14:$D$14,TRUE,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L15" s="7" t="e">
-        <f>J15*1000</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N15" s="2">
-        <v>100</v>
-      </c>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" t="e">
-        <f>SLOPE(O15:Q15,$B$2:$D$2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U15" s="7" t="e">
-        <f>T15*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W15" t="e" cm="1">
-        <f t="array" ref="W15">LINEST(O15:Q15, $B$14:$D$14,TRUE,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y15" s="7" t="e">
-        <f>W15*1000</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>90</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H16" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" t="e" cm="1">
-        <f t="array" ref="J16">LINEST(B16:D16, $B$14:$D$14,TRUE,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L16" s="7" t="e">
-        <f t="shared" ref="L16:L24" si="7">J16*1000</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N16" s="2">
-        <v>90</v>
-      </c>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" t="e">
-        <f t="shared" ref="T16:T24" si="8">SLOPE(O16:Q16,$B$2:$D$2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U16" s="7" t="e">
-        <f t="shared" ref="U16:U24" si="9">T16*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W16" t="e" cm="1">
-        <f t="array" ref="W16">LINEST(O16:Q16, $B$14:$D$14,TRUE,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y16" s="7" t="e">
-        <f t="shared" ref="Y16:Y24" si="10">W16*1000</f>
-        <v>#VALUE!</v>
+      <c r="O16" s="6">
+        <v>3.908923149</v>
+      </c>
+      <c r="P16" s="6">
+        <v>3.9199876790000001</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>3.9282598499999999</v>
+      </c>
+      <c r="R16" s="6">
+        <v>3.934084892</v>
+      </c>
+      <c r="S16">
+        <v>3.9384889599999999</v>
+      </c>
+      <c r="T16">
+        <f t="shared" ref="T16:T24" si="9">SLOPE(O16:S16,$B$2:$F$2)</f>
+        <v>1.4645766999999933E-3</v>
+      </c>
+      <c r="U16" s="5">
+        <f t="shared" ref="U16:U18" si="10">T16*1000</f>
+        <v>1.4645766999999932</v>
+      </c>
+      <c r="W16" cm="1">
+        <f t="array" ref="W16:X16">LINEST(O16:S16, $B$14:$F$14,TRUE,FALSE)</f>
+        <v>1.4645766999999931E-3</v>
+      </c>
+      <c r="X16">
+        <v>3.4675363989000019</v>
+      </c>
+      <c r="Y16" s="5">
+        <f t="shared" ref="Y16:Y24" si="11">W16*1000</f>
+        <v>1.464576699999993</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="8">
         <v>80</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J17" t="e" cm="1">
-        <f t="array" ref="J17">LINEST(B17:D17, $B$14:$D$14,TRUE,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L17" s="7" t="e">
+      <c r="B17" s="6">
+        <v>3.9301443100000002</v>
+      </c>
+      <c r="C17" s="6">
+        <v>3.9356050489999999</v>
+      </c>
+      <c r="D17" s="6">
+        <v>3.9397497179999998</v>
+      </c>
+      <c r="E17" s="6">
+        <v>3.9422826770000001</v>
+      </c>
+      <c r="F17">
+        <v>3.9445791240000001</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N17" s="2">
+        <v>7.1094512000000163E-4</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="2"/>
+        <v>0.71094512000000165</v>
+      </c>
+      <c r="J17" cm="1">
+        <f t="array" ref="J17:K17">LINEST(B17:F17, $B$14:$F$14,TRUE,FALSE)</f>
+        <v>7.1094512000000163E-4</v>
+      </c>
+      <c r="K17">
+        <v>3.7159463530399992</v>
+      </c>
+      <c r="L17" s="5">
+        <f>J17*1000</f>
+        <v>0.71094512000000165</v>
+      </c>
+      <c r="N17" s="8">
         <v>80</v>
       </c>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U17" s="7" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W17" t="e" cm="1">
-        <f t="array" ref="W17">LINEST(O17:Q17, $B$14:$D$14,TRUE,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y17" s="7" t="e">
+      <c r="O17" s="6">
+        <v>3.838728905</v>
+      </c>
+      <c r="P17" s="6">
+        <v>3.8487749099999999</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>3.8559637069999999</v>
+      </c>
+      <c r="R17" s="6">
+        <v>3.8607492450000001</v>
+      </c>
+      <c r="S17">
+        <v>3.8648405079999999</v>
+      </c>
+      <c r="T17">
+        <f>SLOPE(O17:S17,$B$2:$F$2)</f>
+        <v>1.2839508199999994E-3</v>
+      </c>
+      <c r="U17" s="5">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
+        <v>1.2839508199999994</v>
+      </c>
+      <c r="W17" cm="1">
+        <f t="array" ref="W17:X17">LINEST(O17:S17, $B$14:$F$14,TRUE,FALSE)</f>
+        <v>1.283950819999999E-3</v>
+      </c>
+      <c r="X17">
+        <v>3.4519348483400005</v>
+      </c>
+      <c r="Y17" s="5">
+        <f t="shared" si="11"/>
+        <v>1.2839508199999989</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="8">
         <v>70</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H18" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J18" t="e" cm="1">
-        <f t="array" ref="J18">LINEST(B18:D18, $B$14:$D$14,TRUE,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L18" s="7" t="e">
+      <c r="B18" s="6">
+        <v>3.8302125930000002</v>
+      </c>
+      <c r="C18" s="6">
+        <v>3.8370561599999999</v>
+      </c>
+      <c r="D18" s="6">
+        <v>3.841269493</v>
+      </c>
+      <c r="E18" s="6">
+        <v>3.8442544939999999</v>
+      </c>
+      <c r="F18">
+        <v>3.846079826</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N18" s="2">
+        <v>7.7865599999999086E-4</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="2"/>
+        <v>0.77865599999999091</v>
+      </c>
+      <c r="J18" cm="1">
+        <f t="array" ref="J18:K18">LINEST(B18:F18, $B$14:$F$14,TRUE,FALSE)</f>
+        <v>7.7865599999999075E-4</v>
+      </c>
+      <c r="K18">
+        <v>3.5960551852000027</v>
+      </c>
+      <c r="L18" s="5">
+        <f t="shared" si="8"/>
+        <v>0.7786559999999908</v>
+      </c>
+      <c r="N18" s="8">
         <v>70</v>
       </c>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U18" s="7" t="e">
+      <c r="O18" s="6">
+        <v>3.7432413100000002</v>
+      </c>
+      <c r="P18" s="6">
+        <v>3.7535257340000001</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>3.7609510419999999</v>
+      </c>
+      <c r="R18" s="6">
+        <v>3.765622139</v>
+      </c>
+      <c r="S18">
+        <v>3.769726753</v>
+      </c>
+      <c r="T18">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W18" t="e" cm="1">
-        <f t="array" ref="W18">LINEST(O18:Q18, $B$14:$D$14,TRUE,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y18" s="7" t="e">
+        <v>1.3013458199999928E-3</v>
+      </c>
+      <c r="U18" s="5">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
+        <v>1.3013458199999928</v>
+      </c>
+      <c r="W18" cm="1">
+        <f t="array" ref="W18:X18">LINEST(O18:S18, $B$14:$F$14,TRUE,FALSE)</f>
+        <v>1.3013458199999926E-3</v>
+      </c>
+      <c r="X18">
+        <v>3.351292153940002</v>
+      </c>
+      <c r="Y18" s="5">
+        <f t="shared" si="11"/>
+        <v>1.3013458199999925</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="8">
         <v>60</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H19" s="7" t="e">
+      <c r="B19" s="6">
+        <v>3.7273988720000002</v>
+      </c>
+      <c r="C19" s="6">
+        <v>3.7333707810000001</v>
+      </c>
+      <c r="D19" s="6">
+        <v>3.7376985550000001</v>
+      </c>
+      <c r="E19" s="6">
+        <v>3.740683556</v>
+      </c>
+      <c r="F19">
+        <v>3.7430620189999999</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="7"/>
+        <v>7.7278137999998715E-4</v>
+      </c>
+      <c r="H19" s="5">
         <f>G19*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19" t="e" cm="1">
-        <f t="array" ref="J19">LINEST(B19:D19, $B$14:$D$14,TRUE,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L19" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N19" s="2">
+        <v>0.77278137999998719</v>
+      </c>
+      <c r="J19" cm="1">
+        <f t="array" ref="J19:K19">LINEST(B19:F19, $B$14:$F$14,TRUE,FALSE)</f>
+        <v>7.7278137999998704E-4</v>
+      </c>
+      <c r="K19">
+        <v>3.4945621846600043</v>
+      </c>
+      <c r="L19" s="5">
+        <f t="shared" si="8"/>
+        <v>0.77278137999998708</v>
+      </c>
+      <c r="N19" s="8">
         <v>60</v>
       </c>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U19" s="7" t="e">
+      <c r="O19" s="6">
+        <v>3.6398134230000001</v>
+      </c>
+      <c r="P19" s="6">
+        <v>3.6498193739999998</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>3.6573934559999999</v>
+      </c>
+      <c r="R19" s="6">
+        <v>3.662199974</v>
+      </c>
+      <c r="S19">
+        <v>3.6662187579999999</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="9"/>
+        <v>1.3038253999999938E-3</v>
+      </c>
+      <c r="U19" s="5">
         <f>T19*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W19" t="e" cm="1">
-        <f t="array" ref="W19">LINEST(O19:Q19, $B$14:$D$14,TRUE,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y19" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
+        <v>1.3038253999999938</v>
+      </c>
+      <c r="W19" cm="1">
+        <f t="array" ref="W19:X19">LINEST(O19:S19, $B$14:$F$14,TRUE,FALSE)</f>
+        <v>1.3038253999999938E-3</v>
+      </c>
+      <c r="X19">
+        <v>3.246991646800002</v>
+      </c>
+      <c r="Y19" s="5">
+        <f t="shared" si="11"/>
+        <v>1.3038253999999938</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="8">
         <v>50</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" t="e">
-        <f>SLOPE(B20:D20,$B$2:$D$2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20" t="e" cm="1">
-        <f t="array" ref="J20">LINEST(B20:D20, $B$14:$D$14,TRUE,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L20" s="7" t="e">
+      <c r="B20" s="6">
+        <v>3.6359930039999999</v>
+      </c>
+      <c r="C20" s="6">
+        <v>3.6419820789999999</v>
+      </c>
+      <c r="D20" s="6">
+        <v>3.646876335</v>
+      </c>
+      <c r="E20" s="6">
+        <v>3.6497449870000001</v>
+      </c>
+      <c r="F20">
+        <v>3.6522245409999998</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N20" s="2">
+        <v>8.0451963999999881E-4</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="2"/>
+        <v>0.80451963999999876</v>
+      </c>
+      <c r="J20" cm="1">
+        <f t="array" ref="J20:K20">LINEST(B20:F20, $B$14:$F$14,TRUE,FALSE)</f>
+        <v>8.045196399999987E-4</v>
+      </c>
+      <c r="K20">
+        <v>3.3935495418800006</v>
+      </c>
+      <c r="L20" s="5">
+        <f t="shared" si="8"/>
+        <v>0.80451963999999865</v>
+      </c>
+      <c r="N20" s="8">
         <v>50</v>
       </c>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" t="e">
-        <f>SLOPE(O20:Q20,$B$2:$D$2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U20" s="7" t="e">
-        <f t="shared" ref="U20:U24" si="11">T20*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W20" t="e" cm="1">
-        <f t="array" ref="W20">LINEST(O20:Q20, $B$14:$D$14,TRUE,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y20" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
+      <c r="O20" s="6">
+        <v>3.5468988420000001</v>
+      </c>
+      <c r="P20" s="6">
+        <v>3.557801247</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>3.5653791429999999</v>
+      </c>
+      <c r="R20" s="6">
+        <v>3.570273399</v>
+      </c>
+      <c r="S20">
+        <v>3.5745935439999998</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="9"/>
+        <v>1.3572311199999908E-3</v>
+      </c>
+      <c r="U20" s="5">
+        <f t="shared" ref="U20:U24" si="12">T20*1000</f>
+        <v>1.3572311199999909</v>
+      </c>
+      <c r="W20" cm="1">
+        <f t="array" ref="W20:X20">LINEST(O20:S20, $B$14:$F$14,TRUE,FALSE)</f>
+        <v>1.3572311199999908E-3</v>
+      </c>
+      <c r="X20">
+        <v>3.1381758944400029</v>
+      </c>
+      <c r="Y20" s="5">
+        <f t="shared" si="11"/>
+        <v>1.3572311199999909</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="8">
         <v>40</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H21" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J21" t="e" cm="1">
-        <f t="array" ref="J21">LINEST(B21:D21, $B$14:$D$14,TRUE,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L21" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N21" s="2">
+      <c r="B21" s="6">
+        <v>3.538743019</v>
+      </c>
+      <c r="C21" s="6">
+        <v>3.5413236619999999</v>
+      </c>
+      <c r="D21" s="6">
+        <v>3.5418119429999999</v>
+      </c>
+      <c r="E21" s="6">
+        <v>3.541735649</v>
+      </c>
+      <c r="F21">
+        <v>3.5412969589999999</v>
+      </c>
+      <c r="G21">
+        <f>SLOPE(B21:F21,$B$2:$F$2)</f>
+        <v>1.103973399999969E-4</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" si="2"/>
+        <v>0.1103973399999969</v>
+      </c>
+      <c r="J21" cm="1">
+        <f t="array" ref="J21:K21">LINEST(B21:F21, $B$14:$F$14,TRUE,FALSE)</f>
+        <v>1.1039733999999689E-4</v>
+      </c>
+      <c r="K21">
+        <v>3.5064278789800012</v>
+      </c>
+      <c r="L21" s="5">
+        <f t="shared" si="8"/>
+        <v>0.11039733999999689</v>
+      </c>
+      <c r="N21" s="8">
         <v>40</v>
       </c>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" t="e">
-        <f t="shared" ref="T21:T24" si="12">SLOPE(O21:Q21,$B$2:$D$2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U21" s="7" t="e">
+      <c r="O21" s="6">
+        <v>3.4524450299999998</v>
+      </c>
+      <c r="P21" s="6">
+        <v>3.459454536</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>3.4633836750000002</v>
+      </c>
+      <c r="R21" s="6">
+        <v>3.4650430679999999</v>
+      </c>
+      <c r="S21">
+        <v>3.4665594099999999</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="9"/>
+        <v>6.7634584000000333E-4</v>
+      </c>
+      <c r="U21" s="5">
+        <f t="shared" si="12"/>
+        <v>0.67634584000000331</v>
+      </c>
+      <c r="W21" cm="1">
+        <f t="array" ref="W21:X21">LINEST(O21:S21, $B$14:$F$14,TRUE,FALSE)</f>
+        <v>6.7634584000000311E-4</v>
+      </c>
+      <c r="X21">
+        <v>3.2496808958799992</v>
+      </c>
+      <c r="Y21" s="5">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W21" t="e" cm="1">
-        <f t="array" ref="W21">LINEST(O21:Q21, $B$14:$D$14,TRUE,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y21" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
+        <v>0.67634584000000308</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="8">
         <v>30</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H22" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J22" t="e" cm="1">
-        <f t="array" ref="J22">LINEST(B22:D22, $B$14:$D$14,TRUE,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L22" s="7" t="e">
+      <c r="B22" s="6">
+        <v>3.4266366960000001</v>
+      </c>
+      <c r="C22" s="6">
+        <v>3.431311607</v>
+      </c>
+      <c r="D22" s="6">
+        <v>3.4347009659999999</v>
+      </c>
+      <c r="E22" s="6">
+        <v>3.4364767070000002</v>
+      </c>
+      <c r="F22">
+        <v>3.4378156660000001</v>
+      </c>
+      <c r="G22">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N22" s="2">
+        <v>5.5046080000000332E-4</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" si="2"/>
+        <v>0.5504608000000033</v>
+      </c>
+      <c r="J22" cm="1">
+        <f t="array" ref="J22:K22">LINEST(B22:F22, $B$14:$F$14,TRUE,FALSE)</f>
+        <v>5.5046080000000321E-4</v>
+      </c>
+      <c r="K22">
+        <v>3.2610940979999996</v>
+      </c>
+      <c r="L22" s="5">
+        <f t="shared" si="8"/>
+        <v>0.55046080000000319</v>
+      </c>
+      <c r="N22" s="8">
         <v>30</v>
       </c>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" t="e">
+      <c r="O22" s="6">
+        <v>3.3380308150000002</v>
+      </c>
+      <c r="P22" s="6">
+        <v>3.347367287</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>3.3540143969999998</v>
+      </c>
+      <c r="R22" s="6">
+        <v>3.358244896</v>
+      </c>
+      <c r="S22">
+        <v>3.3616247179999998</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="9"/>
+        <v>1.1613082999999858E-3</v>
+      </c>
+      <c r="U22" s="5">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U22" s="7" t="e">
+        <v>1.1613082999999857</v>
+      </c>
+      <c r="W22" cm="1">
+        <f t="array" ref="W22:X22">LINEST(O22:S22, $B$14:$F$14,TRUE,FALSE)</f>
+        <v>1.1613082999999856E-3</v>
+      </c>
+      <c r="X22">
+        <v>2.9883669247000046</v>
+      </c>
+      <c r="Y22" s="5">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W22" t="e" cm="1">
-        <f t="array" ref="W22">LINEST(O22:Q22, $B$14:$D$14,TRUE,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y22" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
+        <v>1.1613082999999855</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="8">
         <v>20</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H23" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J23" t="e" cm="1">
-        <f t="array" ref="J23">LINEST(B23:D23, $B$14:$D$14,TRUE,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L23" s="7" t="e">
+      <c r="B23" s="6">
+        <v>3.2975511549999998</v>
+      </c>
+      <c r="C23" s="6">
+        <v>3.3032007220000001</v>
+      </c>
+      <c r="D23" s="6">
+        <v>3.306975365</v>
+      </c>
+      <c r="E23" s="6">
+        <v>3.3082456589999998</v>
+      </c>
+      <c r="F23">
+        <v>3.3080625530000001</v>
+      </c>
+      <c r="G23">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N23" s="2">
+        <v>5.2135466000000183E-4</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" si="2"/>
+        <v>0.52135466000000186</v>
+      </c>
+      <c r="J23" cm="1">
+        <f t="array" ref="J23:K23">LINEST(B23:F23, $B$14:$F$14,TRUE,FALSE)</f>
+        <v>5.2135466000000183E-4</v>
+      </c>
+      <c r="K23">
+        <v>3.1416230822199993</v>
+      </c>
+      <c r="L23" s="5">
+        <f t="shared" si="8"/>
+        <v>0.52135466000000186</v>
+      </c>
+      <c r="N23" s="8">
         <v>20</v>
       </c>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" t="e">
+      <c r="O23" s="6">
+        <v>3.2034883500000002</v>
+      </c>
+      <c r="P23" s="6">
+        <v>3.2152700420000002</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>3.22340107</v>
+      </c>
+      <c r="R23" s="6">
+        <v>3.2273836139999998</v>
+      </c>
+      <c r="S23">
+        <v>3.2298345570000002</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="9"/>
+        <v>1.2961197199999929E-3</v>
+      </c>
+      <c r="U23" s="5">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U23" s="7" t="e">
+        <v>1.296119719999993</v>
+      </c>
+      <c r="W23" cm="1">
+        <f t="array" ref="W23:X23">LINEST(O23:S23, $B$14:$F$14,TRUE,FALSE)</f>
+        <v>1.2961197199999931E-3</v>
+      </c>
+      <c r="X23">
+        <v>2.8141900542400022</v>
+      </c>
+      <c r="Y23" s="5">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W23" t="e" cm="1">
-        <f t="array" ref="W23">LINEST(O23:Q23, $B$14:$D$14,TRUE,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y23" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
+        <v>1.2961197199999932</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="8">
         <v>10</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H24" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J24" t="e" cm="1">
-        <f t="array" ref="J24">LINEST(B24:D24, $B$14:$D$14,TRUE,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L24" s="7" t="e">
+      <c r="B24" s="6">
+        <v>3.0584230419999998</v>
+      </c>
+      <c r="C24" s="6">
+        <v>3.0693254470000002</v>
+      </c>
+      <c r="D24" s="6">
+        <v>3.0768880840000001</v>
+      </c>
+      <c r="E24" s="6">
+        <v>3.0805578229999999</v>
+      </c>
+      <c r="F24">
+        <v>3.0832719800000001</v>
+      </c>
+      <c r="G24">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N24" s="2">
+        <v>1.218605040000007E-3</v>
+      </c>
+      <c r="H24" s="5">
+        <f t="shared" si="2"/>
+        <v>1.218605040000007</v>
+      </c>
+      <c r="J24" cm="1">
+        <f t="array" ref="J24:K24">LINEST(B24:F24, $B$14:$F$14,TRUE,FALSE)</f>
+        <v>1.218605040000007E-3</v>
+      </c>
+      <c r="K24">
+        <v>2.6922698976799979</v>
+      </c>
+      <c r="L24" s="5">
+        <f t="shared" si="8"/>
+        <v>1.218605040000007</v>
+      </c>
+      <c r="N24" s="8">
         <v>10</v>
       </c>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" t="e">
+      <c r="O24" s="6">
+        <v>2.9452810290000002</v>
+      </c>
+      <c r="P24" s="6">
+        <v>2.9671869279999998</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>2.981707573</v>
+      </c>
+      <c r="R24" s="6">
+        <v>2.989748955</v>
+      </c>
+      <c r="S24">
+        <v>2.996127129</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="9"/>
+        <v>2.4850845399999955E-3</v>
+      </c>
+      <c r="U24" s="5">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U24" s="7" t="e">
+        <v>2.4850845399999955</v>
+      </c>
+      <c r="W24" cm="1">
+        <f t="array" ref="W24:X24">LINEST(O24:S24, $B$14:$F$14,TRUE,FALSE)</f>
+        <v>2.4850845399999951E-3</v>
+      </c>
+      <c r="X24">
+        <v>2.1981788617800011</v>
+      </c>
+      <c r="Y24" s="5">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W24" t="e" cm="1">
-        <f t="array" ref="W24">LINEST(O24:Q24, $B$14:$D$14,TRUE,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y24" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
+        <v>2.485084539999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="H26" s="1"/>
+      <c r="N26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="8">
+        <v>303</v>
+      </c>
+      <c r="C27" s="8">
+        <v>308</v>
+      </c>
+      <c r="D27" s="8">
+        <v>313</v>
+      </c>
+      <c r="E27" s="8">
+        <v>318</v>
+      </c>
+      <c r="F27" s="1">
+        <v>323</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="8">
+        <v>303</v>
+      </c>
+      <c r="P27" s="8">
+        <v>308</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>313</v>
+      </c>
+      <c r="R27" s="8">
+        <v>318</v>
+      </c>
+      <c r="S27" s="1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>100</v>
+      </c>
+      <c r="B28" s="6">
+        <f>(B3-B15)/9*1000</f>
+        <v>10.018666555555475</v>
+      </c>
+      <c r="C28" s="6">
+        <f>(C3-C15)/9*1000</f>
+        <v>9.2377132222222329</v>
+      </c>
+      <c r="D28" s="6">
+        <f t="shared" ref="C28:F28" si="13">(D3-D15)/9*1000</f>
+        <v>8.6394416666667109</v>
+      </c>
+      <c r="E28" s="6">
+        <f t="shared" si="13"/>
+        <v>8.2475874444444894</v>
+      </c>
+      <c r="F28" s="6">
+        <f t="shared" si="13"/>
+        <v>7.9400804444443986</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="N28" s="8">
+        <v>100</v>
+      </c>
+      <c r="O28" s="6">
+        <f>(O3-O15)/18*1000</f>
+        <v>10.414017611111111</v>
+      </c>
+      <c r="P28" s="6">
+        <f t="shared" ref="P28:S28" si="14">(P3-P15)/18*1000</f>
+        <v>9.6702575555555921</v>
+      </c>
+      <c r="Q28" s="6">
+        <f t="shared" si="14"/>
+        <v>9.1155370000000069</v>
+      </c>
+      <c r="R28" s="6">
+        <f t="shared" si="14"/>
+        <v>8.7295108333333236</v>
+      </c>
+      <c r="S28" s="6">
+        <f t="shared" si="14"/>
+        <v>8.4208382777777562</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>90</v>
+      </c>
+      <c r="B29" s="6">
+        <f t="shared" ref="B29:F37" si="15">(B4-B16)/9*1000</f>
+        <v>8.9914534444444332</v>
+      </c>
+      <c r="C29" s="6">
+        <f t="shared" si="15"/>
+        <v>8.3940293333333056</v>
+      </c>
+      <c r="D29" s="6">
+        <f t="shared" si="15"/>
+        <v>7.9693264444444312</v>
+      </c>
+      <c r="E29" s="6">
+        <f t="shared" si="15"/>
+        <v>7.6505873333333101</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" si="15"/>
+        <v>7.4475606666666545</v>
+      </c>
+      <c r="H29" s="8"/>
+      <c r="N29" s="8">
+        <v>90</v>
+      </c>
+      <c r="O29" s="6">
+        <f t="shared" ref="O29:S37" si="16">(O4-O16)/18*1000</f>
+        <v>9.509086611111087</v>
+      </c>
+      <c r="P29" s="6">
+        <f t="shared" si="16"/>
+        <v>8.9264975555555353</v>
+      </c>
+      <c r="Q29" s="6">
+        <f t="shared" si="16"/>
+        <v>8.4971321666666508</v>
+      </c>
+      <c r="R29" s="6">
+        <f t="shared" si="16"/>
+        <v>8.1975724999999837</v>
+      </c>
+      <c r="S29" s="6">
+        <f t="shared" si="16"/>
+        <v>7.9879761111111156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>80</v>
+      </c>
+      <c r="B30" s="6">
+        <f t="shared" si="15"/>
+        <v>8.8295406666666238</v>
+      </c>
+      <c r="C30" s="6">
+        <f t="shared" si="15"/>
+        <v>8.3052317777777667</v>
+      </c>
+      <c r="D30" s="6">
+        <f t="shared" si="15"/>
+        <v>7.88964166666665</v>
+      </c>
+      <c r="E30" s="6">
+        <f t="shared" si="15"/>
+        <v>7.6563093333333017</v>
+      </c>
+      <c r="F30" s="6">
+        <f t="shared" si="15"/>
+        <v>7.4607002222222034</v>
+      </c>
+      <c r="H30" s="8"/>
+      <c r="N30" s="8">
+        <v>80</v>
+      </c>
+      <c r="O30" s="6">
+        <f t="shared" si="16"/>
+        <v>9.352578055555572</v>
+      </c>
+      <c r="P30" s="6">
+        <f t="shared" si="16"/>
+        <v>8.8336732777777947</v>
+      </c>
+      <c r="Q30" s="6">
+        <f t="shared" si="16"/>
+        <v>8.4580315555555785</v>
+      </c>
+      <c r="R30" s="6">
+        <f t="shared" si="16"/>
+        <v>8.1956651111111025</v>
+      </c>
+      <c r="S30" s="6">
+        <f t="shared" si="16"/>
+        <v>7.9870223888889074</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>70</v>
+      </c>
+      <c r="B31" s="6">
+        <f t="shared" si="15"/>
+        <v>8.7081061111110944</v>
+      </c>
+      <c r="C31" s="6">
+        <f t="shared" si="15"/>
+        <v>8.1740485555555793</v>
+      </c>
+      <c r="D31" s="6">
+        <f t="shared" si="15"/>
+        <v>7.8432295555555722</v>
+      </c>
+      <c r="E31" s="6">
+        <f t="shared" si="15"/>
+        <v>7.556279444444443</v>
+      </c>
+      <c r="F31" s="6">
+        <f t="shared" si="15"/>
+        <v>7.395002666666656</v>
+      </c>
+      <c r="H31" s="8"/>
+      <c r="N31" s="8">
+        <v>70</v>
+      </c>
+      <c r="O31" s="6">
+        <f t="shared" si="16"/>
+        <v>9.2231962222222048</v>
+      </c>
+      <c r="P31" s="6">
+        <f t="shared" si="16"/>
+        <v>8.7374581111111151</v>
+      </c>
+      <c r="Q31" s="6">
+        <f t="shared" si="16"/>
+        <v>8.3450741111111206</v>
+      </c>
+      <c r="R31" s="6">
+        <f t="shared" si="16"/>
+        <v>8.0929862222222209</v>
+      </c>
+      <c r="S31" s="6">
+        <f t="shared" si="16"/>
+        <v>7.8994962777777635</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>60</v>
+      </c>
+      <c r="B32" s="6">
+        <f t="shared" si="15"/>
+        <v>8.6394416666666611</v>
+      </c>
+      <c r="C32" s="6">
+        <f t="shared" si="15"/>
+        <v>8.1022051111111129</v>
+      </c>
+      <c r="D32" s="6">
+        <f t="shared" si="15"/>
+        <v>7.7154371111110995</v>
+      </c>
+      <c r="E32" s="6">
+        <f t="shared" si="15"/>
+        <v>7.4738395555555597</v>
+      </c>
+      <c r="F32" s="6">
+        <f t="shared" si="15"/>
+        <v>7.3115031111111115</v>
+      </c>
+      <c r="H32" s="8"/>
+      <c r="N32" s="8">
+        <v>60</v>
+      </c>
+      <c r="O32" s="6">
+        <f t="shared" si="16"/>
+        <v>9.1651280555555577</v>
+      </c>
+      <c r="P32" s="6">
+        <f t="shared" si="16"/>
+        <v>8.6486604444444559</v>
+      </c>
+      <c r="Q32" s="6">
+        <f t="shared" si="16"/>
+        <v>8.2615746111111115</v>
+      </c>
+      <c r="R32" s="6">
+        <f t="shared" si="16"/>
+        <v>8.0032348888888887</v>
+      </c>
+      <c r="S32" s="6">
+        <f t="shared" si="16"/>
+        <v>7.8277587777777731</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>50</v>
+      </c>
+      <c r="B33" s="6">
+        <f t="shared" si="15"/>
+        <v>8.6371103333333643</v>
+      </c>
+      <c r="C33" s="6">
+        <f t="shared" si="15"/>
+        <v>8.1350537777777649</v>
+      </c>
+      <c r="D33" s="6">
+        <f t="shared" si="15"/>
+        <v>7.7319675555555838</v>
+      </c>
+      <c r="E33" s="6">
+        <f t="shared" si="15"/>
+        <v>7.466422222222195</v>
+      </c>
+      <c r="F33" s="6">
+        <f t="shared" si="15"/>
+        <v>7.28691944444446</v>
+      </c>
+      <c r="H33" s="8"/>
+      <c r="N33" s="8">
+        <v>50</v>
+      </c>
+      <c r="O33" s="6">
+        <f t="shared" si="16"/>
+        <v>9.173499222222226</v>
+      </c>
+      <c r="P33" s="6">
+        <f t="shared" si="16"/>
+        <v>8.6432562777777697</v>
+      </c>
+      <c r="Q33" s="6">
+        <f t="shared" si="16"/>
+        <v>8.2734425555555582</v>
+      </c>
+      <c r="R33" s="6">
+        <f t="shared" si="16"/>
+        <v>8.0255932222222306</v>
+      </c>
+      <c r="S33" s="6">
+        <f t="shared" si="16"/>
+        <v>7.8260633888888913</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>40</v>
+      </c>
+      <c r="B34" s="6">
+        <f t="shared" si="15"/>
+        <v>8.6303286666666619</v>
+      </c>
+      <c r="C34" s="6">
+        <f t="shared" si="15"/>
+        <v>8.0704158888888795</v>
+      </c>
+      <c r="D34" s="6">
+        <f t="shared" si="15"/>
+        <v>7.7052646666666798</v>
+      </c>
+      <c r="E34" s="6">
+        <f t="shared" si="15"/>
+        <v>7.4041154444444643</v>
+      </c>
+      <c r="F34" s="6">
+        <f t="shared" si="15"/>
+        <v>7.2646671111111045</v>
+      </c>
+      <c r="H34" s="8"/>
+      <c r="N34" s="8">
+        <v>40</v>
+      </c>
+      <c r="O34" s="6">
+        <f t="shared" si="16"/>
+        <v>9.1648101666666673</v>
+      </c>
+      <c r="P34" s="6">
+        <f t="shared" si="16"/>
+        <v>8.6344613333333431</v>
+      </c>
+      <c r="Q34" s="6">
+        <f t="shared" si="16"/>
+        <v>8.244726388888882</v>
+      </c>
+      <c r="R34" s="6">
+        <f t="shared" si="16"/>
+        <v>7.9974068333333248</v>
+      </c>
+      <c r="S34" s="6">
+        <f t="shared" si="16"/>
+        <v>7.7987247222222296</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>30</v>
+      </c>
+      <c r="B35" s="6">
+        <f t="shared" si="15"/>
+        <v>8.6328717777777921</v>
+      </c>
+      <c r="C35" s="6">
+        <f t="shared" si="15"/>
+        <v>8.0769856666666779</v>
+      </c>
+      <c r="D35" s="6">
+        <f t="shared" si="15"/>
+        <v>7.6575808888889165</v>
+      </c>
+      <c r="E35" s="6">
+        <f t="shared" si="15"/>
+        <v>7.401360444444431</v>
+      </c>
+      <c r="F35" s="6">
+        <f t="shared" si="15"/>
+        <v>7.2074466666666543</v>
+      </c>
+      <c r="H35" s="8"/>
+      <c r="N35" s="8">
+        <v>30</v>
+      </c>
+      <c r="O35" s="6">
+        <f t="shared" si="16"/>
+        <v>9.2107984999999868</v>
+      </c>
+      <c r="P35" s="6">
+        <f t="shared" si="16"/>
+        <v>8.6625416666666784</v>
+      </c>
+      <c r="Q35" s="6">
+        <f t="shared" si="16"/>
+        <v>8.2646475555555714</v>
+      </c>
+      <c r="R35" s="6">
+        <f t="shared" si="16"/>
+        <v>7.9878701111111043</v>
+      </c>
+      <c r="S35" s="6">
+        <f t="shared" si="16"/>
+        <v>7.7693727222222355</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>20</v>
+      </c>
+      <c r="B36" s="6">
+        <f t="shared" si="15"/>
+        <v>9.0893640000000193</v>
+      </c>
+      <c r="C36" s="6">
+        <f t="shared" si="15"/>
+        <v>8.4936353333333354</v>
+      </c>
+      <c r="D36" s="6">
+        <f t="shared" si="15"/>
+        <v>8.0365074444444442</v>
+      </c>
+      <c r="E36" s="6">
+        <f t="shared" si="15"/>
+        <v>7.7207353333333337</v>
+      </c>
+      <c r="F36" s="6">
+        <f t="shared" si="15"/>
+        <v>7.5261857777777736</v>
+      </c>
+      <c r="H36" s="8"/>
+      <c r="N36" s="8">
+        <v>20</v>
+      </c>
+      <c r="O36" s="6">
+        <f t="shared" si="16"/>
+        <v>9.7256766111110977</v>
+      </c>
+      <c r="P36" s="6">
+        <f t="shared" si="16"/>
+        <v>9.0892579999999814</v>
+      </c>
+      <c r="Q36" s="6">
+        <f t="shared" si="16"/>
+        <v>8.6462232777777785</v>
+      </c>
+      <c r="R36" s="6">
+        <f t="shared" si="16"/>
+        <v>8.3475112777777749</v>
+      </c>
+      <c r="S36" s="6">
+        <f t="shared" si="16"/>
+        <v>8.1059137777777703</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>10</v>
+      </c>
+      <c r="B37" s="6">
+        <f t="shared" si="15"/>
+        <v>11.318206777777776</v>
+      </c>
+      <c r="C37" s="6">
+        <f t="shared" si="15"/>
+        <v>10.164048999999972</v>
+      </c>
+      <c r="D37" s="6">
+        <f t="shared" si="15"/>
+        <v>9.3557569999999952</v>
+      </c>
+      <c r="E37" s="6">
+        <f t="shared" si="15"/>
+        <v>8.8916354444444785</v>
+      </c>
+      <c r="F37" s="6">
+        <f t="shared" si="15"/>
+        <v>8.4982977777777862</v>
+      </c>
+      <c r="H37" s="8"/>
+      <c r="N37" s="8">
+        <v>10</v>
+      </c>
+      <c r="O37" s="6">
+        <f t="shared" si="16"/>
+        <v>12.113677111111098</v>
+      </c>
+      <c r="P37" s="6">
+        <f t="shared" si="16"/>
+        <v>10.90950433333335</v>
+      </c>
+      <c r="Q37" s="6">
+        <f t="shared" si="16"/>
+        <v>10.091463722222224</v>
+      </c>
+      <c r="R37" s="6">
+        <f t="shared" si="16"/>
+        <v>9.580400222222222</v>
+      </c>
+      <c r="S37" s="6">
+        <f t="shared" si="16"/>
+        <v>9.1724395555555667</v>
       </c>
     </row>
   </sheetData>

--- a/FE12/Cell Modeling/FE12_P45B_EntropicHeatCoefficients.xlsx
+++ b/FE12/Cell Modeling/FE12_P45B_EntropicHeatCoefficients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laptop\OneDrive - University of California, Davis\Documents\GitHub\FE12-Accumulator\FE12\Cell Modeling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad310da11adffc61/Documentos/GitHub/FE12-Accumulator/FE12/Cell Modeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE3E17E-8963-4FA2-8D8F-6F755B7A959C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{AEE3E17E-8963-4FA2-8D8F-6F755B7A959C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE608F5E-1EF6-4444-B44D-C2755363ED2B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31AE9364-1268-41AB-B668-B2DC75F79138}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{31AE9364-1268-41AB-B668-B2DC75F79138}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -164,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -177,10 +177,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -235,7 +233,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Voltage One</a:t>
+              <a:t>2C - Voltage One</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -1442,6 +1440,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temperature (K)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1504,6 +1557,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>OCV (V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2127,7 +2235,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Voltage One</a:t>
+              <a:t>4C - Voltage One</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -3096,6 +3204,685 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800"/>
+              <a:t>Entropic Heat Coefficients</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.36697628882986699"/>
+          <c:y val="1.5350877192982455E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.4647550397101062E-2"/>
+          <c:y val="8.4501657687525905E-2"/>
+          <c:w val="0.82920040307438214"/>
+          <c:h val="0.86299316203895571"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>2C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.5029919999989257E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11390688000002312</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10135652000000658</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19474031999998859</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18161769999998964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19809723999999027</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.50117489999999876</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.4304780000010737E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.18051150000000682</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.5596639999978524E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9CB1-429C-8980-2ECD96810723}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>4C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$3:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$3:$Y$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-5.7222000000578424E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10696412000001486</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.106779999999091E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11627197999999338</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10856631999998533</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16471861999999504</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.5365752999999972</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.11940002000000224</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.13713833999999811</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.11108397999999296</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9CB1-429C-8980-2ECD96810723}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1743685471"/>
+        <c:axId val="1743682591"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1743685471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>SOC (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47031701837741002"/>
+              <c:y val="0.95870734908136479"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1743682591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1743682591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Entropic Coefficients (mV/K)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1743685471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3336,6 +4123,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6432,20 +7259,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>401002</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>142873</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>353377</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114297</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>3334</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>80961</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>50959</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6472,16 +7815,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>613885</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>162876</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>318610</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>10476</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>123823</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19048</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6544,16 +7887,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>653144</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>179614</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>163082</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>169138</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1138713</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>131038</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6582,16 +7925,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>108858</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>175532</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>78582</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>46946</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>50007</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6621,15 +7964,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>687158</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>534758</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>163285</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>153760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6649,6 +7992,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>681037</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E5FA1D-15AB-8108-9375-1D28ADFF1B1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6976,8 +8355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB795AD-713B-444C-8C0B-22AC1AA478F9}">
   <dimension ref="A1:AD37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" topLeftCell="D15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z98" sqref="Z98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6999,41 +8378,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="AA1" s="10" t="s">
+      <c r="AA1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="1">
         <v>303</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="1">
         <v>308</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="1">
         <v>313</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="1">
         <v>318</v>
       </c>
       <c r="F2" s="1">
@@ -7055,19 +8426,19 @@
       <c r="L2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="1">
         <v>303</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="1">
         <v>308</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="Q2" s="1">
         <v>313</v>
       </c>
-      <c r="R2" s="8">
+      <c r="R2" s="1">
         <v>318</v>
       </c>
       <c r="S2" s="1">
@@ -7089,7 +8460,7 @@
       <c r="Y2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AA2" s="8">
+      <c r="AA2" s="1">
         <v>100</v>
       </c>
       <c r="AB2">
@@ -7098,19 +8469,19 @@
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="1">
         <v>100</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3">
         <v>4.1892862319999997</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3">
         <v>4.1898183820000003</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3">
         <v>4.1900777820000004</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3">
         <v>4.189990044</v>
       </c>
       <c r="F3">
@@ -7135,19 +8506,19 @@
         <f>J3*1000</f>
         <v>1.5029919999989257E-2</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="1">
         <v>100</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3">
         <v>4.1893224719999997</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3">
         <v>4.1897230150000002</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3">
         <v>4.1899480819999999</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3">
         <v>4.1895723340000002</v>
       </c>
       <c r="S3">
@@ -7172,28 +8543,28 @@
         <f>W3*1000</f>
         <v>-5.7222000000578424E-4</v>
       </c>
-      <c r="AA3" s="8">
+      <c r="AA3" s="1">
         <v>90</v>
       </c>
       <c r="AB3">
-        <f t="shared" ref="AB3:AB11" si="0">ABS(H4-U4)</f>
+        <f t="shared" ref="AB3:AB9" si="0">ABS(H4-U4)</f>
         <v>6.9427600000082634E-3</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="1">
         <v>90</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>4.0804414749999998</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4">
         <v>4.0811223979999998</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4">
         <v>4.0818853380000002</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4">
         <v>4.0821714399999998</v>
       </c>
       <c r="F4">
@@ -7218,19 +8589,19 @@
         <f t="shared" ref="L4:L12" si="3">J4*1000</f>
         <v>0.11390688000002312</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="1">
         <v>90</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4">
         <v>4.0800867079999996</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4">
         <v>4.0806646349999998</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4">
         <v>4.0812082289999996</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4">
         <v>4.0816411969999997</v>
       </c>
       <c r="S4">
@@ -7255,7 +8626,7 @@
         <f t="shared" ref="Y4:Y12" si="6">W4*1000</f>
         <v>0.10696412000001486</v>
       </c>
-      <c r="AA4" s="8">
+      <c r="AA4" s="1">
         <v>80</v>
       </c>
       <c r="AB4">
@@ -7264,19 +8635,19 @@
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="1">
         <v>80</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>4.0096101759999998</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5">
         <v>4.0103521349999998</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5">
         <v>4.0107564929999997</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5">
         <v>4.0111894609999998</v>
       </c>
       <c r="F5">
@@ -7301,19 +8672,19 @@
         <f t="shared" si="3"/>
         <v>0.10135652000000658</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="1">
         <v>80</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5">
         <v>4.0070753100000003</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5">
         <v>4.0077810290000002</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5">
         <v>4.0082082750000003</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5">
         <v>4.0082712169999999</v>
       </c>
       <c r="S5">
@@ -7338,7 +8709,7 @@
         <f t="shared" si="6"/>
         <v>7.106779999999091E-2</v>
       </c>
-      <c r="AA5" s="8">
+      <c r="AA5" s="1">
         <v>70</v>
       </c>
       <c r="AB5">
@@ -7347,19 +8718,19 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="1">
         <v>70</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>3.908585548</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6">
         <v>3.9106225970000001</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6">
         <v>3.9118585590000001</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6">
         <v>3.9122610089999998</v>
       </c>
       <c r="F6">
@@ -7384,19 +8755,19 @@
         <f t="shared" si="3"/>
         <v>0.19474031999998859</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="1">
         <v>70</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6">
         <v>3.9092588419999998</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6">
         <v>3.9107999800000002</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6">
         <v>3.9111623760000001</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6">
         <v>3.911295891</v>
       </c>
       <c r="S6">
@@ -7421,7 +8792,7 @@
         <f t="shared" si="6"/>
         <v>0.11627197999999338</v>
       </c>
-      <c r="AA6" s="8">
+      <c r="AA6" s="1">
         <v>60</v>
       </c>
       <c r="AB6">
@@ -7430,19 +8801,19 @@
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="1">
         <v>60</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7">
         <v>3.8051538470000001</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7">
         <v>3.8062906270000001</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7">
         <v>3.807137489</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7">
         <v>3.8079481120000001</v>
       </c>
       <c r="F7">
@@ -7467,19 +8838,19 @@
         <f t="shared" si="3"/>
         <v>0.18161769999998964</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="1">
         <v>60</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7">
         <v>3.8047857280000001</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7">
         <v>3.805495262</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7">
         <v>3.8061017989999999</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7">
         <v>3.806258202</v>
       </c>
       <c r="S7">
@@ -7504,7 +8875,7 @@
         <f t="shared" si="6"/>
         <v>0.10856631999998533</v>
       </c>
-      <c r="AA7" s="8">
+      <c r="AA7" s="1">
         <v>50</v>
       </c>
       <c r="AB7">
@@ -7513,19 +8884,19 @@
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="1">
         <v>50</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>3.7137269970000002</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8">
         <v>3.7151975629999998</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8">
         <v>3.7164640430000002</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8">
         <v>3.7169427869999998</v>
       </c>
       <c r="F8">
@@ -7550,19 +8921,19 @@
         <f t="shared" si="3"/>
         <v>0.19809723999999027</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="1">
         <v>50</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8">
         <v>3.7120218280000001</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8">
         <v>3.7133798599999999</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8">
         <v>3.714301109</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8">
         <v>3.7147340770000001</v>
       </c>
       <c r="S8">
@@ -7587,7 +8958,7 @@
         <f t="shared" si="6"/>
         <v>0.16471861999999504</v>
       </c>
-      <c r="AA8" s="8">
+      <c r="AA8" s="1">
         <v>40</v>
       </c>
       <c r="AB8">
@@ -7596,19 +8967,19 @@
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="1">
         <v>40</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>3.6164159769999999</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9">
         <v>3.6139574049999998</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9">
         <v>3.611159325</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9">
         <v>3.6083726880000002</v>
       </c>
       <c r="F9">
@@ -7633,19 +9004,19 @@
         <f t="shared" si="3"/>
         <v>-0.50117489999999876</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="1">
         <v>40</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9">
         <v>3.6174116129999998</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9">
         <v>3.6148748400000001</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9">
         <v>3.6117887500000001</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9">
         <v>3.6089963909999998</v>
       </c>
       <c r="S9">
@@ -7670,7 +9041,7 @@
         <f t="shared" si="6"/>
         <v>-0.5365752999999972</v>
       </c>
-      <c r="AA9" s="8">
+      <c r="AA9" s="1">
         <v>30</v>
       </c>
       <c r="AB9">
@@ -7679,19 +9050,19 @@
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="1">
         <v>30</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10">
         <v>3.5043325420000002</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10">
         <v>3.5040044780000001</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10">
         <v>3.5036191940000001</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10">
         <v>3.5030889510000001</v>
       </c>
       <c r="F10">
@@ -7716,19 +9087,19 @@
         <f t="shared" si="3"/>
         <v>-8.4304780000010737E-2</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="1">
         <v>30</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10">
         <v>3.503825188</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10">
         <v>3.5032930370000002</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10">
         <v>3.5027780530000001</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10">
         <v>3.5020265579999998</v>
       </c>
       <c r="S10">
@@ -7753,7 +9124,7 @@
         <f t="shared" si="6"/>
         <v>-0.11940002000000224</v>
       </c>
-      <c r="AA10" s="8">
+      <c r="AA10" s="1">
         <v>20</v>
       </c>
       <c r="AB10">
@@ -7762,19 +9133,19 @@
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="1">
         <v>20</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11">
         <v>3.379355431</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11">
         <v>3.3796434400000002</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11">
         <v>3.379303932</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11">
         <v>3.3777322769999998</v>
       </c>
       <c r="F11">
@@ -7799,19 +9170,19 @@
         <f t="shared" si="3"/>
         <v>-0.18051150000000682</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="1">
         <v>20</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11">
         <v>3.378550529</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11">
         <v>3.3788766859999999</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11">
         <v>3.379033089</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11">
         <v>3.3776388169999998</v>
       </c>
       <c r="S11">
@@ -7836,7 +9207,7 @@
         <f t="shared" si="6"/>
         <v>-0.13713833999999811</v>
       </c>
-      <c r="AA11" s="8">
+      <c r="AA11" s="1">
         <v>10</v>
       </c>
       <c r="AB11">
@@ -7845,19 +9216,19 @@
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12">
         <v>3.1602869029999998</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12">
         <v>3.1608018879999999</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12">
         <v>3.1610898970000001</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12">
         <v>3.1605825420000002</v>
       </c>
       <c r="F12">
@@ -7882,19 +9253,19 @@
         <f t="shared" si="3"/>
         <v>-2.5596639999978524E-2</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="1">
         <v>10</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12">
         <v>3.163327217</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12">
         <v>3.1635580060000001</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12">
         <v>3.16335392</v>
       </c>
-      <c r="R12" s="6">
+      <c r="R12">
         <v>3.1621961590000001</v>
       </c>
       <c r="S12">
@@ -7921,35 +9292,25 @@
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
       <c r="H13" s="5"/>
       <c r="L13" s="5"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
       <c r="U13" s="5"/>
       <c r="Y13" s="5"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="1">
         <v>303</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="1">
         <v>308</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="1">
         <v>313</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="1">
         <v>318</v>
       </c>
       <c r="F14" s="1">
@@ -7970,19 +9331,19 @@
       <c r="L14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="N14" s="8" t="s">
+      <c r="N14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="1">
         <v>303</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P14" s="1">
         <v>308</v>
       </c>
-      <c r="Q14" s="8">
+      <c r="Q14" s="1">
         <v>313</v>
       </c>
-      <c r="R14" s="8">
+      <c r="R14" s="1">
         <v>318</v>
       </c>
       <c r="S14" s="1">
@@ -8005,19 +9366,19 @@
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="1">
         <v>100</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15">
         <v>4.0991182330000004</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15">
         <v>4.1066789630000002</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15">
         <v>4.112322807</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15">
         <v>4.1157617569999996</v>
       </c>
       <c r="F15">
@@ -8042,19 +9403,19 @@
         <f>J15*1000</f>
         <v>0.94154355999997108</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="1">
         <v>100</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15">
         <v>4.0018701549999998</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15">
         <v>4.0156583789999996</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="Q15">
         <v>4.0258684159999998</v>
       </c>
-      <c r="R15" s="6">
+      <c r="R15">
         <v>4.0324411390000003</v>
       </c>
       <c r="S15">
@@ -8081,19 +9442,19 @@
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="1">
         <v>90</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16">
         <v>3.9995183939999999</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16">
         <v>4.005576134</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16">
         <v>4.0101614000000003</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16">
         <v>4.013316154</v>
       </c>
       <c r="F16">
@@ -8118,19 +9479,19 @@
         <f t="shared" ref="L16:L24" si="8">J16*1000</f>
         <v>0.8035278400000222</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="1">
         <v>90</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16">
         <v>3.908923149</v>
       </c>
-      <c r="P16" s="6">
+      <c r="P16">
         <v>3.9199876790000001</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="Q16">
         <v>3.9282598499999999</v>
       </c>
-      <c r="R16" s="6">
+      <c r="R16">
         <v>3.934084892</v>
       </c>
       <c r="S16">
@@ -8157,19 +9518,19 @@
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="1">
         <v>80</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17">
         <v>3.9301443100000002</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17">
         <v>3.9356050489999999</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17">
         <v>3.9397497179999998</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17">
         <v>3.9422826770000001</v>
       </c>
       <c r="F17">
@@ -8194,19 +9555,19 @@
         <f>J17*1000</f>
         <v>0.71094512000000165</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="1">
         <v>80</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17">
         <v>3.838728905</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17">
         <v>3.8487749099999999</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="Q17">
         <v>3.8559637069999999</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R17">
         <v>3.8607492450000001</v>
       </c>
       <c r="S17">
@@ -8233,19 +9594,19 @@
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="1">
         <v>70</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18">
         <v>3.8302125930000002</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18">
         <v>3.8370561599999999</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18">
         <v>3.841269493</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18">
         <v>3.8442544939999999</v>
       </c>
       <c r="F18">
@@ -8270,19 +9631,19 @@
         <f t="shared" si="8"/>
         <v>0.7786559999999908</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="1">
         <v>70</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18">
         <v>3.7432413100000002</v>
       </c>
-      <c r="P18" s="6">
+      <c r="P18">
         <v>3.7535257340000001</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="Q18">
         <v>3.7609510419999999</v>
       </c>
-      <c r="R18" s="6">
+      <c r="R18">
         <v>3.765622139</v>
       </c>
       <c r="S18">
@@ -8309,19 +9670,19 @@
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="1">
         <v>60</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19">
         <v>3.7273988720000002</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19">
         <v>3.7333707810000001</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19">
         <v>3.7376985550000001</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19">
         <v>3.740683556</v>
       </c>
       <c r="F19">
@@ -8346,19 +9707,19 @@
         <f t="shared" si="8"/>
         <v>0.77278137999998708</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="1">
         <v>60</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19">
         <v>3.6398134230000001</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P19">
         <v>3.6498193739999998</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="Q19">
         <v>3.6573934559999999</v>
       </c>
-      <c r="R19" s="6">
+      <c r="R19">
         <v>3.662199974</v>
       </c>
       <c r="S19">
@@ -8385,19 +9746,19 @@
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="1">
         <v>50</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20">
         <v>3.6359930039999999</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20">
         <v>3.6419820789999999</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20">
         <v>3.646876335</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20">
         <v>3.6497449870000001</v>
       </c>
       <c r="F20">
@@ -8422,19 +9783,19 @@
         <f t="shared" si="8"/>
         <v>0.80451963999999865</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="1">
         <v>50</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O20">
         <v>3.5468988420000001</v>
       </c>
-      <c r="P20" s="6">
+      <c r="P20">
         <v>3.557801247</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="Q20">
         <v>3.5653791429999999</v>
       </c>
-      <c r="R20" s="6">
+      <c r="R20">
         <v>3.570273399</v>
       </c>
       <c r="S20">
@@ -8461,19 +9822,19 @@
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="1">
         <v>40</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21">
         <v>3.538743019</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21">
         <v>3.5413236619999999</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21">
         <v>3.5418119429999999</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21">
         <v>3.541735649</v>
       </c>
       <c r="F21">
@@ -8498,19 +9859,19 @@
         <f t="shared" si="8"/>
         <v>0.11039733999999689</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="1">
         <v>40</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O21">
         <v>3.4524450299999998</v>
       </c>
-      <c r="P21" s="6">
+      <c r="P21">
         <v>3.459454536</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="Q21">
         <v>3.4633836750000002</v>
       </c>
-      <c r="R21" s="6">
+      <c r="R21">
         <v>3.4650430679999999</v>
       </c>
       <c r="S21">
@@ -8537,19 +9898,19 @@
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="1">
         <v>30</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22">
         <v>3.4266366960000001</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22">
         <v>3.431311607</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22">
         <v>3.4347009659999999</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22">
         <v>3.4364767070000002</v>
       </c>
       <c r="F22">
@@ -8574,19 +9935,19 @@
         <f t="shared" si="8"/>
         <v>0.55046080000000319</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N22" s="1">
         <v>30</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22">
         <v>3.3380308150000002</v>
       </c>
-      <c r="P22" s="6">
+      <c r="P22">
         <v>3.347367287</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="Q22">
         <v>3.3540143969999998</v>
       </c>
-      <c r="R22" s="6">
+      <c r="R22">
         <v>3.358244896</v>
       </c>
       <c r="S22">
@@ -8613,19 +9974,19 @@
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23">
         <v>3.2975511549999998</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23">
         <v>3.3032007220000001</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23">
         <v>3.306975365</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23">
         <v>3.3082456589999998</v>
       </c>
       <c r="F23">
@@ -8650,19 +10011,19 @@
         <f t="shared" si="8"/>
         <v>0.52135466000000186</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N23" s="1">
         <v>20</v>
       </c>
-      <c r="O23" s="6">
+      <c r="O23">
         <v>3.2034883500000002</v>
       </c>
-      <c r="P23" s="6">
+      <c r="P23">
         <v>3.2152700420000002</v>
       </c>
-      <c r="Q23" s="6">
+      <c r="Q23">
         <v>3.22340107</v>
       </c>
-      <c r="R23" s="6">
+      <c r="R23">
         <v>3.2273836139999998</v>
       </c>
       <c r="S23">
@@ -8689,19 +10050,19 @@
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="A24" s="1">
         <v>10</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24">
         <v>3.0584230419999998</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24">
         <v>3.0693254470000002</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24">
         <v>3.0768880840000001</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24">
         <v>3.0805578229999999</v>
       </c>
       <c r="F24">
@@ -8726,19 +10087,19 @@
         <f t="shared" si="8"/>
         <v>1.218605040000007</v>
       </c>
-      <c r="N24" s="8">
+      <c r="N24" s="1">
         <v>10</v>
       </c>
-      <c r="O24" s="6">
+      <c r="O24">
         <v>2.9452810290000002</v>
       </c>
-      <c r="P24" s="6">
+      <c r="P24">
         <v>2.9671869279999998</v>
       </c>
-      <c r="Q24" s="6">
+      <c r="Q24">
         <v>2.981707573</v>
       </c>
-      <c r="R24" s="6">
+      <c r="R24">
         <v>2.989748955</v>
       </c>
       <c r="S24">
@@ -8763,66 +10124,50 @@
         <f t="shared" si="11"/>
         <v>2.485084539999995</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
       <c r="H26" s="1"/>
       <c r="N26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="8">
+      <c r="B27" s="1">
         <v>303</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="1">
         <v>308</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="1">
         <v>313</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="1">
         <v>318</v>
       </c>
       <c r="F27" s="1">
         <v>323</v>
       </c>
       <c r="H27" s="1"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="8">
+      <c r="O27" s="1">
         <v>303</v>
       </c>
-      <c r="P27" s="8">
+      <c r="P27" s="1">
         <v>308</v>
       </c>
-      <c r="Q27" s="8">
+      <c r="Q27" s="1">
         <v>313</v>
       </c>
-      <c r="R27" s="8">
+      <c r="R27" s="1">
         <v>318</v>
       </c>
       <c r="S27" s="1">
@@ -8830,491 +10175,490 @@
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+      <c r="A28" s="1">
         <v>100</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28">
         <f>(B3-B15)/9*1000</f>
         <v>10.018666555555475</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28">
         <f>(C3-C15)/9*1000</f>
         <v>9.2377132222222329</v>
       </c>
-      <c r="D28" s="6">
-        <f t="shared" ref="C28:F28" si="13">(D3-D15)/9*1000</f>
+      <c r="D28">
+        <f t="shared" ref="D28:F28" si="13">(D3-D15)/9*1000</f>
         <v>8.6394416666667109</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28">
         <f t="shared" si="13"/>
         <v>8.2475874444444894</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28">
         <f t="shared" si="13"/>
         <v>7.9400804444443986</v>
       </c>
-      <c r="H28" s="8"/>
-      <c r="N28" s="8">
+      <c r="H28" s="1"/>
+      <c r="N28" s="1">
         <v>100</v>
       </c>
-      <c r="O28" s="6">
+      <c r="O28">
         <f>(O3-O15)/18*1000</f>
         <v>10.414017611111111</v>
       </c>
-      <c r="P28" s="6">
+      <c r="P28">
         <f t="shared" ref="P28:S28" si="14">(P3-P15)/18*1000</f>
         <v>9.6702575555555921</v>
       </c>
-      <c r="Q28" s="6">
+      <c r="Q28">
         <f t="shared" si="14"/>
         <v>9.1155370000000069</v>
       </c>
-      <c r="R28" s="6">
+      <c r="R28">
         <f t="shared" si="14"/>
         <v>8.7295108333333236</v>
       </c>
-      <c r="S28" s="6">
+      <c r="S28">
         <f t="shared" si="14"/>
         <v>8.4208382777777562</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="A29" s="1">
         <v>90</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29">
         <f t="shared" ref="B29:F37" si="15">(B4-B16)/9*1000</f>
         <v>8.9914534444444332</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29">
         <f t="shared" si="15"/>
         <v>8.3940293333333056</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29">
         <f t="shared" si="15"/>
         <v>7.9693264444444312</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29">
         <f t="shared" si="15"/>
         <v>7.6505873333333101</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29">
         <f t="shared" si="15"/>
         <v>7.4475606666666545</v>
       </c>
-      <c r="H29" s="8"/>
-      <c r="N29" s="8">
+      <c r="H29" s="1"/>
+      <c r="N29" s="1">
         <v>90</v>
       </c>
-      <c r="O29" s="6">
+      <c r="O29">
         <f t="shared" ref="O29:S37" si="16">(O4-O16)/18*1000</f>
         <v>9.509086611111087</v>
       </c>
-      <c r="P29" s="6">
+      <c r="P29">
         <f t="shared" si="16"/>
         <v>8.9264975555555353</v>
       </c>
-      <c r="Q29" s="6">
+      <c r="Q29">
         <f t="shared" si="16"/>
         <v>8.4971321666666508</v>
       </c>
-      <c r="R29" s="6">
+      <c r="R29">
         <f t="shared" si="16"/>
         <v>8.1975724999999837</v>
       </c>
-      <c r="S29" s="6">
+      <c r="S29">
         <f t="shared" si="16"/>
         <v>7.9879761111111156</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+      <c r="A30" s="1">
         <v>80</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30">
         <f t="shared" si="15"/>
         <v>8.8295406666666238</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30">
         <f t="shared" si="15"/>
         <v>8.3052317777777667</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30">
         <f t="shared" si="15"/>
         <v>7.88964166666665</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30">
         <f t="shared" si="15"/>
         <v>7.6563093333333017</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30">
         <f t="shared" si="15"/>
         <v>7.4607002222222034</v>
       </c>
-      <c r="H30" s="8"/>
-      <c r="N30" s="8">
+      <c r="H30" s="1"/>
+      <c r="N30" s="1">
         <v>80</v>
       </c>
-      <c r="O30" s="6">
+      <c r="O30">
         <f t="shared" si="16"/>
         <v>9.352578055555572</v>
       </c>
-      <c r="P30" s="6">
+      <c r="P30">
         <f t="shared" si="16"/>
         <v>8.8336732777777947</v>
       </c>
-      <c r="Q30" s="6">
+      <c r="Q30">
         <f t="shared" si="16"/>
         <v>8.4580315555555785</v>
       </c>
-      <c r="R30" s="6">
+      <c r="R30">
         <f t="shared" si="16"/>
         <v>8.1956651111111025</v>
       </c>
-      <c r="S30" s="6">
+      <c r="S30">
         <f t="shared" si="16"/>
         <v>7.9870223888889074</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
+      <c r="A31" s="1">
         <v>70</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31">
         <f t="shared" si="15"/>
         <v>8.7081061111110944</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31">
         <f t="shared" si="15"/>
         <v>8.1740485555555793</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31">
         <f t="shared" si="15"/>
         <v>7.8432295555555722</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31">
         <f t="shared" si="15"/>
         <v>7.556279444444443</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31">
         <f t="shared" si="15"/>
         <v>7.395002666666656</v>
       </c>
-      <c r="H31" s="8"/>
-      <c r="N31" s="8">
+      <c r="H31" s="1"/>
+      <c r="N31" s="1">
         <v>70</v>
       </c>
-      <c r="O31" s="6">
+      <c r="O31">
         <f t="shared" si="16"/>
         <v>9.2231962222222048</v>
       </c>
-      <c r="P31" s="6">
+      <c r="P31">
         <f t="shared" si="16"/>
         <v>8.7374581111111151</v>
       </c>
-      <c r="Q31" s="6">
+      <c r="Q31">
         <f t="shared" si="16"/>
         <v>8.3450741111111206</v>
       </c>
-      <c r="R31" s="6">
+      <c r="R31">
         <f t="shared" si="16"/>
         <v>8.0929862222222209</v>
       </c>
-      <c r="S31" s="6">
+      <c r="S31">
         <f t="shared" si="16"/>
         <v>7.8994962777777635</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
+      <c r="A32" s="1">
         <v>60</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32">
         <f t="shared" si="15"/>
         <v>8.6394416666666611</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32">
         <f t="shared" si="15"/>
         <v>8.1022051111111129</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32">
         <f t="shared" si="15"/>
         <v>7.7154371111110995</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32">
         <f t="shared" si="15"/>
         <v>7.4738395555555597</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32">
         <f t="shared" si="15"/>
         <v>7.3115031111111115</v>
       </c>
-      <c r="H32" s="8"/>
-      <c r="N32" s="8">
+      <c r="H32" s="1"/>
+      <c r="N32" s="1">
         <v>60</v>
       </c>
-      <c r="O32" s="6">
+      <c r="O32">
         <f t="shared" si="16"/>
         <v>9.1651280555555577</v>
       </c>
-      <c r="P32" s="6">
+      <c r="P32">
         <f t="shared" si="16"/>
         <v>8.6486604444444559</v>
       </c>
-      <c r="Q32" s="6">
+      <c r="Q32">
         <f t="shared" si="16"/>
         <v>8.2615746111111115</v>
       </c>
-      <c r="R32" s="6">
+      <c r="R32">
         <f t="shared" si="16"/>
         <v>8.0032348888888887</v>
       </c>
-      <c r="S32" s="6">
+      <c r="S32">
         <f t="shared" si="16"/>
         <v>7.8277587777777731</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
+      <c r="A33" s="1">
         <v>50</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33">
         <f t="shared" si="15"/>
         <v>8.6371103333333643</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33">
         <f t="shared" si="15"/>
         <v>8.1350537777777649</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33">
         <f t="shared" si="15"/>
         <v>7.7319675555555838</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33">
         <f t="shared" si="15"/>
         <v>7.466422222222195</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33">
         <f t="shared" si="15"/>
         <v>7.28691944444446</v>
       </c>
-      <c r="H33" s="8"/>
-      <c r="N33" s="8">
+      <c r="H33" s="1"/>
+      <c r="N33" s="1">
         <v>50</v>
       </c>
-      <c r="O33" s="6">
+      <c r="O33">
         <f t="shared" si="16"/>
         <v>9.173499222222226</v>
       </c>
-      <c r="P33" s="6">
+      <c r="P33">
         <f t="shared" si="16"/>
         <v>8.6432562777777697</v>
       </c>
-      <c r="Q33" s="6">
+      <c r="Q33">
         <f t="shared" si="16"/>
         <v>8.2734425555555582</v>
       </c>
-      <c r="R33" s="6">
+      <c r="R33">
         <f t="shared" si="16"/>
         <v>8.0255932222222306</v>
       </c>
-      <c r="S33" s="6">
+      <c r="S33">
         <f t="shared" si="16"/>
         <v>7.8260633888888913</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
+      <c r="A34" s="1">
         <v>40</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34">
         <f t="shared" si="15"/>
         <v>8.6303286666666619</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34">
         <f t="shared" si="15"/>
         <v>8.0704158888888795</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34">
         <f t="shared" si="15"/>
         <v>7.7052646666666798</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34">
         <f t="shared" si="15"/>
         <v>7.4041154444444643</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34">
         <f t="shared" si="15"/>
         <v>7.2646671111111045</v>
       </c>
-      <c r="H34" s="8"/>
-      <c r="N34" s="8">
+      <c r="H34" s="1"/>
+      <c r="N34" s="1">
         <v>40</v>
       </c>
-      <c r="O34" s="6">
+      <c r="O34">
         <f t="shared" si="16"/>
         <v>9.1648101666666673</v>
       </c>
-      <c r="P34" s="6">
+      <c r="P34">
         <f t="shared" si="16"/>
         <v>8.6344613333333431</v>
       </c>
-      <c r="Q34" s="6">
+      <c r="Q34">
         <f t="shared" si="16"/>
         <v>8.244726388888882</v>
       </c>
-      <c r="R34" s="6">
+      <c r="R34">
         <f t="shared" si="16"/>
         <v>7.9974068333333248</v>
       </c>
-      <c r="S34" s="6">
+      <c r="S34">
         <f t="shared" si="16"/>
         <v>7.7987247222222296</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
+      <c r="A35" s="1">
         <v>30</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35">
         <f t="shared" si="15"/>
         <v>8.6328717777777921</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35">
         <f t="shared" si="15"/>
         <v>8.0769856666666779</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35">
         <f t="shared" si="15"/>
         <v>7.6575808888889165</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35">
         <f t="shared" si="15"/>
         <v>7.401360444444431</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35">
         <f t="shared" si="15"/>
         <v>7.2074466666666543</v>
       </c>
-      <c r="H35" s="8"/>
-      <c r="N35" s="8">
+      <c r="N35" s="1">
         <v>30</v>
       </c>
-      <c r="O35" s="6">
+      <c r="O35">
         <f t="shared" si="16"/>
         <v>9.2107984999999868</v>
       </c>
-      <c r="P35" s="6">
+      <c r="P35">
         <f t="shared" si="16"/>
         <v>8.6625416666666784</v>
       </c>
-      <c r="Q35" s="6">
+      <c r="Q35">
         <f t="shared" si="16"/>
         <v>8.2646475555555714</v>
       </c>
-      <c r="R35" s="6">
+      <c r="R35">
         <f t="shared" si="16"/>
         <v>7.9878701111111043</v>
       </c>
-      <c r="S35" s="6">
+      <c r="S35">
         <f t="shared" si="16"/>
         <v>7.7693727222222355</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
+      <c r="A36" s="1">
         <v>20</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36">
         <f t="shared" si="15"/>
         <v>9.0893640000000193</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36">
         <f t="shared" si="15"/>
         <v>8.4936353333333354</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36">
         <f t="shared" si="15"/>
         <v>8.0365074444444442</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36">
         <f t="shared" si="15"/>
         <v>7.7207353333333337</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36">
         <f t="shared" si="15"/>
         <v>7.5261857777777736</v>
       </c>
-      <c r="H36" s="8"/>
-      <c r="N36" s="8">
+      <c r="H36" s="1"/>
+      <c r="N36" s="1">
         <v>20</v>
       </c>
-      <c r="O36" s="6">
+      <c r="O36">
         <f t="shared" si="16"/>
         <v>9.7256766111110977</v>
       </c>
-      <c r="P36" s="6">
+      <c r="P36">
         <f t="shared" si="16"/>
         <v>9.0892579999999814</v>
       </c>
-      <c r="Q36" s="6">
+      <c r="Q36">
         <f t="shared" si="16"/>
         <v>8.6462232777777785</v>
       </c>
-      <c r="R36" s="6">
+      <c r="R36">
         <f t="shared" si="16"/>
         <v>8.3475112777777749</v>
       </c>
-      <c r="S36" s="6">
+      <c r="S36">
         <f t="shared" si="16"/>
         <v>8.1059137777777703</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
+      <c r="A37" s="1">
         <v>10</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37">
         <f t="shared" si="15"/>
         <v>11.318206777777776</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37">
         <f t="shared" si="15"/>
         <v>10.164048999999972</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37">
         <f t="shared" si="15"/>
         <v>9.3557569999999952</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37">
         <f t="shared" si="15"/>
         <v>8.8916354444444785</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37">
         <f t="shared" si="15"/>
         <v>8.4982977777777862</v>
       </c>
-      <c r="H37" s="8"/>
-      <c r="N37" s="8">
+      <c r="H37" s="1"/>
+      <c r="N37" s="1">
         <v>10</v>
       </c>
-      <c r="O37" s="6">
+      <c r="O37">
         <f t="shared" si="16"/>
         <v>12.113677111111098</v>
       </c>
-      <c r="P37" s="6">
+      <c r="P37">
         <f t="shared" si="16"/>
         <v>10.90950433333335</v>
       </c>
-      <c r="Q37" s="6">
+      <c r="Q37">
         <f t="shared" si="16"/>
         <v>10.091463722222224</v>
       </c>
-      <c r="R37" s="6">
+      <c r="R37">
         <f t="shared" si="16"/>
         <v>9.580400222222222</v>
       </c>
-      <c r="S37" s="6">
+      <c r="S37">
         <f t="shared" si="16"/>
         <v>9.1724395555555667</v>
       </c>

--- a/FE12/Cell Modeling/FE12_P45B_EntropicHeatCoefficients.xlsx
+++ b/FE12/Cell Modeling/FE12_P45B_EntropicHeatCoefficients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad310da11adffc61/Documentos/GitHub/FE12-Accumulator/FE12/Cell Modeling/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laptop\OneDrive - University of California, Davis\Documents\GitHub\FE12-Accumulator\FE12\Cell Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{AEE3E17E-8963-4FA2-8D8F-6F755B7A959C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE608F5E-1EF6-4444-B44D-C2755363ED2B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF72224-9568-4D44-9309-4CE16F0BDFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{31AE9364-1268-41AB-B668-B2DC75F79138}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31AE9364-1268-41AB-B668-B2DC75F79138}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3239,7 +3239,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800"/>
-              <a:t>Entropic Heat Coefficients</a:t>
+              <a:t>P45B Entropic Heat Coefficients</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1800" baseline="0"/>
@@ -3883,6 +3883,520 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>P45B 90% SOC, 2C discharge Entropic Heat Coefficients</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.5209536307961505E-2"/>
+                  <c:y val="0.22384259259259259"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>323</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.0804414749999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0811223979999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0818853380000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0821714399999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0827646260000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7D87-4C69-A5DA-5579A6F7EAF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="866820383"/>
+        <c:axId val="866801183"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="866820383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temperature (K)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="866801183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="866801183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Open</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Circuit Voltage (V)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="866820383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4163,6 +4677,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7260,6 +7814,522 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8033,6 +9103,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>182094</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>127186</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>458039</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>12886</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{078C0181-F46E-DA36-E5E2-FC0AED217FDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8355,8 +9461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB795AD-713B-444C-8C0B-22AC1AA478F9}">
   <dimension ref="A1:AD37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z98" sqref="Z98"/>
+    <sheetView tabSelected="1" topLeftCell="K42" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
